--- a/书目进度.xlsx
+++ b/书目进度.xlsx
@@ -96,7 +96,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -164,9 +164,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -204,7 +206,7 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -214,7 +216,7 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="20">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
@@ -225,6 +227,7 @@
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -233,6 +236,7 @@
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -561,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -578,7 +582,7 @@
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,12 +632,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1">
+    <row r="2" spans="1:17" hidden="1">
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="4">
-        <f>F2/C2</f>
+        <f t="shared" ref="E2:E10" si="0">F2/C2</f>
         <v>1</v>
       </c>
       <c r="F2" s="1">
@@ -641,7 +645,7 @@
       </c>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -656,11 +660,11 @@
         <v>182112</v>
       </c>
       <c r="E3" s="4">
-        <f>F3/C3</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <f>SUM(I3:AE3)</f>
+        <f t="shared" ref="F3:F10" si="1">SUM(I3:AE3)</f>
         <v>271</v>
       </c>
       <c r="G3" s="8">
@@ -668,8 +672,8 @@
         <v>0</v>
       </c>
       <c r="H3" s="9">
-        <f>SUM(J3:AE3)*B3/25</f>
-        <v>5134.08</v>
+        <f t="shared" ref="H3:H5" si="2">SUM(J3:AE3)*B3/25/COUNTIF(J3:AE3,"&gt;0")</f>
+        <v>855.68</v>
       </c>
       <c r="I3" s="1">
         <v>80</v>
@@ -693,7 +697,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -708,84 +712,157 @@
         <v>282210</v>
       </c>
       <c r="E4" s="4">
-        <f>F4/C4</f>
-        <v>0.56234718826405872</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
-        <f>SUM(I4:AE4)</f>
-        <v>230</v>
+        <f t="shared" si="1"/>
+        <v>409</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" ref="G4:G6" si="3">(C4-F4)*B4/H4/25</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" si="2"/>
+        <v>617.54999999999995</v>
       </c>
       <c r="I4" s="1">
         <v>230</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="J4" s="1">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1">
+        <v>26</v>
+      </c>
+      <c r="L4" s="1">
+        <v>32</v>
+      </c>
+      <c r="M4" s="1">
+        <v>28</v>
+      </c>
+      <c r="N4" s="1">
+        <v>22</v>
+      </c>
+      <c r="O4" s="1">
+        <v>14</v>
+      </c>
+      <c r="P4" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C5" s="1">
         <v>500</v>
       </c>
       <c r="D5" s="1">
         <f>B5*C5</f>
-        <v>125000</v>
+        <v>130000</v>
       </c>
       <c r="E5" s="4">
-        <f>F5/C5</f>
-        <v>0.53400000000000003</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <f>SUM(I5:AE5)</f>
-        <v>267</v>
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="2"/>
+        <v>1211.5999999999999</v>
       </c>
       <c r="I5" s="1">
         <v>267</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="J5" s="1">
+        <v>174</v>
+      </c>
+      <c r="K5" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1221</v>
+      </c>
+      <c r="C6" s="1">
+        <v>378</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.69841269841269837</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="3"/>
+        <v>5.0892857142857135</v>
+      </c>
+      <c r="H6" s="9">
+        <f>SUM(J6:AE6)*B6/25/COUNTIF(J6:AE6,"&gt;0")</f>
+        <v>1094.0160000000001</v>
+      </c>
+      <c r="I6" s="1">
+        <v>152</v>
+      </c>
+      <c r="J6" s="1">
+        <v>18</v>
+      </c>
+      <c r="K6" s="1">
+        <v>28</v>
+      </c>
+      <c r="L6" s="1">
+        <v>20</v>
+      </c>
+      <c r="M6" s="1">
+        <v>20</v>
+      </c>
+      <c r="N6" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="1">
-        <v>359</v>
-      </c>
-      <c r="E6" s="4">
-        <f>F6/C6</f>
-        <v>2.2284122562674095E-2</v>
-      </c>
-      <c r="F6" s="1">
-        <f>SUM(I6:AE6)</f>
-        <v>8</v>
-      </c>
-      <c r="I6" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="1">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="E7" s="4">
         <f>F7/C7</f>
-        <v>0.40211640211640209</v>
+        <v>2.2284122562674095E-2</v>
       </c>
       <c r="F7" s="1">
         <f>SUM(I7:AE7)</f>
-        <v>152</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="1">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -794,18 +871,20 @@
         <v>451</v>
       </c>
       <c r="E8" s="4">
-        <f>F8/C8</f>
+        <f t="shared" si="0"/>
         <v>7.0953436807095344E-2</v>
       </c>
       <c r="F8" s="1">
-        <f>SUM(I8:AE8)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -814,18 +893,20 @@
         <v>300</v>
       </c>
       <c r="E9" s="4">
-        <f>F9/C9</f>
+        <f t="shared" si="0"/>
         <v>0.28666666666666668</v>
       </c>
       <c r="F9" s="1">
-        <f>SUM(I9:AE9)</f>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -834,85 +915,104 @@
         <v>357</v>
       </c>
       <c r="E10" s="4">
-        <f>F10/C10</f>
+        <f t="shared" si="0"/>
         <v>0.26890756302521007</v>
       </c>
       <c r="F10" s="1">
-        <f>SUM(I10:AE10)</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="2:7">
       <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="2:7">
       <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="2:7">
       <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="2:7">
       <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="2:5">
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="2:7">
       <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="2:5">
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="2:7">
       <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="2:5">
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="2:7">
       <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="2:5">
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="2:7">
       <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="2:5">
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="2:7">
       <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="2:5">
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="2:7">
       <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="2:5">
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="2:7">
       <c r="B27" s="6"/>
       <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="2:5">
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28" s="6"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:7">
       <c r="B29" s="6"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:7">
       <c r="B30" s="6"/>
       <c r="E30" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E1:E26">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -926,7 +1026,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -940,7 +1040,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -953,16 +1053,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
+  <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF63C384"/>
+        <color rgb="FFFFB628"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A920D428-D39B-4948-A595-3774FD97F008}</x14:id>
+          <x14:id>{5FF41A0A-C9D7-754C-A85E-F3E5B3BBB7DE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -970,7 +1070,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="F3 F4:F10" emptyCellReference="1"/>
+    <ignoredError sqref="F8:F10 F3:F5 F6" emptyCellReference="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -1013,17 +1113,17 @@
           <xm:sqref>E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A920D428-D39B-4948-A595-3774FD97F008}">
+          <x14:cfRule type="dataBar" id="{5FF41A0A-C9D7-754C-A85E-F3E5B3BBB7DE}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
+              <x14:borderColor rgb="FFFFB628"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:negativeBorderColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G1:G1048576</xm:sqref>
+          <xm:sqref>H1:H1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/书目进度.xlsx
+++ b/书目进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>书目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已读</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -78,15 +74,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>还需番茄钟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>初始页</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>总字数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还需番茄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已读</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +98,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -146,6 +146,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="4"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -164,7 +190,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -185,8 +211,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -194,29 +228,42 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="28">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
@@ -228,6 +275,10 @@
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -237,6 +288,10 @@
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -565,454 +620,882 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:DE30"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="5" customWidth="1"/>
-    <col min="3" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="10" customWidth="1"/>
+    <col min="10" max="10" width="3.5" style="4" customWidth="1"/>
+    <col min="11" max="109" width="3.6640625" style="4" customWidth="1"/>
+    <col min="110" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:109" ht="27" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="4">
+        <v>0</v>
+      </c>
+      <c r="K1" s="4">
+        <v>1</v>
+      </c>
+      <c r="L1" s="4">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="M1" s="4">
+        <v>3</v>
+      </c>
+      <c r="N1" s="4">
+        <v>4</v>
+      </c>
+      <c r="O1" s="4">
+        <v>5</v>
+      </c>
+      <c r="P1" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>7</v>
+      </c>
+      <c r="R1" s="4">
+        <v>8</v>
+      </c>
+      <c r="S1" s="4">
+        <v>9</v>
+      </c>
+      <c r="T1" s="4">
+        <v>10</v>
+      </c>
+      <c r="U1" s="4">
+        <v>11</v>
+      </c>
+      <c r="V1" s="4">
+        <v>12</v>
+      </c>
+      <c r="W1" s="4">
+        <v>13</v>
+      </c>
+      <c r="X1" s="4">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="4">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="AA1" s="4">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="4">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="4">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="4">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="4">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="4">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="4">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="4">
+        <v>25</v>
+      </c>
+      <c r="AJ1" s="4">
+        <v>26</v>
+      </c>
+      <c r="AK1" s="4">
+        <v>27</v>
+      </c>
+      <c r="AL1" s="4">
+        <v>28</v>
+      </c>
+      <c r="AM1" s="4">
+        <v>29</v>
+      </c>
+      <c r="AN1" s="4">
+        <v>30</v>
+      </c>
+      <c r="AO1" s="4">
+        <v>31</v>
+      </c>
+      <c r="AP1" s="4">
+        <v>32</v>
+      </c>
+      <c r="AQ1" s="4">
+        <v>33</v>
+      </c>
+      <c r="AR1" s="4">
+        <v>34</v>
+      </c>
+      <c r="AS1" s="4">
+        <v>35</v>
+      </c>
+      <c r="AT1" s="4">
+        <v>36</v>
+      </c>
+      <c r="AU1" s="4">
+        <v>37</v>
+      </c>
+      <c r="AV1" s="4">
+        <v>38</v>
+      </c>
+      <c r="AW1" s="4">
+        <v>39</v>
+      </c>
+      <c r="AX1" s="4">
+        <v>40</v>
+      </c>
+      <c r="AY1" s="4">
+        <v>41</v>
+      </c>
+      <c r="AZ1" s="4">
+        <v>42</v>
+      </c>
+      <c r="BA1" s="4">
+        <v>43</v>
+      </c>
+      <c r="BB1" s="4">
+        <v>44</v>
+      </c>
+      <c r="BC1" s="4">
+        <v>45</v>
+      </c>
+      <c r="BD1" s="4">
+        <v>46</v>
+      </c>
+      <c r="BE1" s="4">
+        <v>47</v>
+      </c>
+      <c r="BF1" s="4">
+        <v>48</v>
+      </c>
+      <c r="BG1" s="4">
+        <v>49</v>
+      </c>
+      <c r="BH1" s="4">
+        <v>50</v>
+      </c>
+      <c r="BI1" s="4">
+        <v>51</v>
+      </c>
+      <c r="BJ1" s="4">
+        <v>52</v>
+      </c>
+      <c r="BK1" s="4">
+        <v>53</v>
+      </c>
+      <c r="BL1" s="4">
+        <v>54</v>
+      </c>
+      <c r="BM1" s="4">
+        <v>55</v>
+      </c>
+      <c r="BN1" s="4">
+        <v>56</v>
+      </c>
+      <c r="BO1" s="4">
+        <v>57</v>
+      </c>
+      <c r="BP1" s="4">
+        <v>58</v>
+      </c>
+      <c r="BQ1" s="4">
+        <v>59</v>
+      </c>
+      <c r="BR1" s="4">
+        <v>60</v>
+      </c>
+      <c r="BS1" s="4">
+        <v>61</v>
+      </c>
+      <c r="BT1" s="4">
+        <v>62</v>
+      </c>
+      <c r="BU1" s="4">
+        <v>63</v>
+      </c>
+      <c r="BV1" s="4">
+        <v>64</v>
+      </c>
+      <c r="BW1" s="4">
+        <v>65</v>
+      </c>
+      <c r="BX1" s="4">
+        <v>66</v>
+      </c>
+      <c r="BY1" s="4">
+        <v>67</v>
+      </c>
+      <c r="BZ1" s="4">
+        <v>68</v>
+      </c>
+      <c r="CA1" s="4">
+        <v>69</v>
+      </c>
+      <c r="CB1" s="4">
+        <v>70</v>
+      </c>
+      <c r="CC1" s="4">
+        <v>71</v>
+      </c>
+      <c r="CD1" s="4">
+        <v>72</v>
+      </c>
+      <c r="CE1" s="4">
+        <v>73</v>
+      </c>
+      <c r="CF1" s="4">
+        <v>74</v>
+      </c>
+      <c r="CG1" s="4">
+        <v>75</v>
+      </c>
+      <c r="CH1" s="4">
+        <v>76</v>
+      </c>
+      <c r="CI1" s="4">
+        <v>77</v>
+      </c>
+      <c r="CJ1" s="4">
+        <v>78</v>
+      </c>
+      <c r="CK1" s="4">
+        <v>79</v>
+      </c>
+      <c r="CL1" s="4">
+        <v>80</v>
+      </c>
+      <c r="CM1" s="4">
+        <v>81</v>
+      </c>
+      <c r="CN1" s="4">
+        <v>82</v>
+      </c>
+      <c r="CO1" s="4">
+        <v>83</v>
+      </c>
+      <c r="CP1" s="4">
+        <v>84</v>
+      </c>
+      <c r="CQ1" s="4">
+        <v>85</v>
+      </c>
+      <c r="CR1" s="4">
+        <v>86</v>
+      </c>
+      <c r="CS1" s="4">
+        <v>87</v>
+      </c>
+      <c r="CT1" s="4">
+        <v>88</v>
+      </c>
+      <c r="CU1" s="4">
+        <v>89</v>
+      </c>
+      <c r="CV1" s="4">
+        <v>90</v>
+      </c>
+      <c r="CW1" s="4">
+        <v>91</v>
+      </c>
+      <c r="CX1" s="4">
+        <v>92</v>
+      </c>
+      <c r="CY1" s="4">
+        <v>93</v>
+      </c>
+      <c r="CZ1" s="4">
+        <v>94</v>
+      </c>
+      <c r="DA1" s="4">
+        <v>95</v>
+      </c>
+      <c r="DB1" s="4">
+        <v>96</v>
+      </c>
+      <c r="DC1" s="4">
+        <v>97</v>
+      </c>
+      <c r="DD1" s="4">
+        <v>98</v>
+      </c>
+      <c r="DE1" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:109" hidden="1">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1">
+      <c r="F2" s="14">
+        <f t="shared" ref="F2:F10" si="0">G2/D2</f>
         <v>1</v>
       </c>
-      <c r="K1" s="1">
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:109">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="5">
+        <v>359</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E9" si="1">C3*D3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <f>G3/D3</f>
+        <v>2.2284122562674095E-2</v>
+      </c>
+      <c r="G3" s="11">
+        <f t="shared" ref="G3:G10" si="2">MAX(J3:DE3)</f>
+        <v>8</v>
+      </c>
+      <c r="H3" s="11" t="e">
+        <f t="shared" ref="H3:H10" si="3">ROUNDUP((D3-G3)*C3/I3/25,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I3" s="11" t="e">
+        <f t="shared" ref="I3:I10" si="4">(MAX(K3:DE3)-B3)*C3/25/COUNTIF(K3:DE3,"&gt;0")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3" s="9">
+        <f>B3</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:109">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
+        <v>32</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="5">
+        <v>451</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <f>G4/D4</f>
+        <v>7.0953436807095344E-2</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="H4" s="11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4" s="11" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" ref="J4:J11" si="5">B4</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:109">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5">
+        <v>96</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5">
+        <v>357</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <f>G5/D5</f>
+        <v>0.26890756302521007</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="H5" s="11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" s="11" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:109">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <v>86</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="5">
+        <v>300</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <f>G6/D6</f>
+        <v>0.28666666666666668</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="H6" s="11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="11" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:109">
+      <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1">
-        <v>5</v>
-      </c>
-      <c r="O1" s="1">
-        <v>6</v>
-      </c>
-      <c r="P1" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" hidden="1">
-      <c r="C2" s="1">
+      <c r="B7" s="5">
+        <v>80</v>
+      </c>
+      <c r="C7" s="7">
+        <v>672</v>
+      </c>
+      <c r="D7" s="5">
+        <v>271</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>182112</v>
+      </c>
+      <c r="F7" s="14">
+        <f>G7/D7</f>
         <v>1</v>
       </c>
-      <c r="E2" s="4">
-        <f t="shared" ref="E2:E10" si="0">F2/C2</f>
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7">
-        <v>672</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="G7" s="11">
+        <f t="shared" si="2"/>
         <v>271</v>
       </c>
-      <c r="D3" s="1">
-        <f>B3*C3</f>
-        <v>182112</v>
-      </c>
-      <c r="E3" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F10" si="1">SUM(I3:AE3)</f>
-        <v>271</v>
-      </c>
-      <c r="G3" s="8">
-        <f>(C3-F3)*B3/H3/25</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
-        <f t="shared" ref="H3:H5" si="2">SUM(J3:AE3)*B3/25/COUNTIF(J3:AE3,"&gt;0")</f>
-        <v>855.68</v>
-      </c>
-      <c r="I3" s="1">
-        <v>80</v>
-      </c>
-      <c r="J3" s="1">
-        <v>16</v>
-      </c>
-      <c r="K3" s="1">
-        <v>28</v>
-      </c>
-      <c r="L3" s="1">
-        <v>34</v>
-      </c>
-      <c r="M3" s="1">
-        <v>16</v>
-      </c>
-      <c r="N3" s="1">
-        <v>40</v>
-      </c>
-      <c r="O3" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="7">
-        <v>690</v>
-      </c>
-      <c r="C4" s="1">
-        <v>409</v>
-      </c>
-      <c r="D4" s="1">
-        <f>B4*C4</f>
-        <v>282210</v>
-      </c>
-      <c r="E4" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="1"/>
-        <v>409</v>
-      </c>
-      <c r="G4" s="8">
-        <f t="shared" ref="G4:G6" si="3">(C4-F4)*B4/H4/25</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <f t="shared" si="2"/>
-        <v>617.54999999999995</v>
-      </c>
-      <c r="I4" s="1">
-        <v>230</v>
-      </c>
-      <c r="J4" s="1">
-        <v>16</v>
-      </c>
-      <c r="K4" s="1">
-        <v>26</v>
-      </c>
-      <c r="L4" s="1">
-        <v>32</v>
-      </c>
-      <c r="M4" s="1">
-        <v>28</v>
-      </c>
-      <c r="N4" s="1">
-        <v>22</v>
-      </c>
-      <c r="O4" s="1">
-        <v>14</v>
-      </c>
-      <c r="P4" s="1">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7">
-        <v>260</v>
-      </c>
-      <c r="C5" s="1">
-        <v>500</v>
-      </c>
-      <c r="D5" s="1">
-        <f>B5*C5</f>
-        <v>130000</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="H7" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H5" s="9">
+      <c r="I7" s="11">
+        <f t="shared" si="4"/>
+        <v>855.68</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="K7" s="4">
+        <v>96</v>
+      </c>
+      <c r="L7" s="4">
+        <v>124</v>
+      </c>
+      <c r="M7" s="4">
+        <v>158</v>
+      </c>
+      <c r="N7" s="4">
+        <v>174</v>
+      </c>
+      <c r="O7" s="4">
+        <v>214</v>
+      </c>
+      <c r="P7" s="4">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:109">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
+        <v>230</v>
+      </c>
+      <c r="C8" s="7">
+        <v>690</v>
+      </c>
+      <c r="D8" s="5">
+        <v>409</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>282210</v>
+      </c>
+      <c r="F8" s="14">
+        <f>G8/D8</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="11">
         <f t="shared" si="2"/>
+        <v>409</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="4"/>
+        <v>617.54999999999995</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="5"/>
+        <v>230</v>
+      </c>
+      <c r="K8" s="4">
+        <v>246</v>
+      </c>
+      <c r="L8" s="4">
+        <v>272</v>
+      </c>
+      <c r="M8" s="4">
+        <v>304</v>
+      </c>
+      <c r="N8" s="4">
+        <v>332</v>
+      </c>
+      <c r="O8" s="4">
+        <v>354</v>
+      </c>
+      <c r="P8" s="4">
+        <v>368</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>388</v>
+      </c>
+      <c r="R8" s="4">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:109">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
+        <v>267</v>
+      </c>
+      <c r="C9" s="7">
+        <v>260</v>
+      </c>
+      <c r="D9" s="5">
+        <v>500</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>130000</v>
+      </c>
+      <c r="F9" s="14">
+        <f>G9/D9</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="4"/>
         <v>1211.5999999999999</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J9" s="9">
+        <f t="shared" si="5"/>
         <v>267</v>
       </c>
-      <c r="J5" s="1">
-        <v>174</v>
-      </c>
-      <c r="K5" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="K9" s="4">
+        <v>441</v>
+      </c>
+      <c r="L9" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:109">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <v>220</v>
+      </c>
+      <c r="C10" s="7">
         <v>1221</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D10" s="5">
         <v>378</v>
       </c>
-      <c r="E6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.69841269841269837</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="1"/>
-        <v>264</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="E10" s="5">
+        <f>C10*D10</f>
+        <v>461538</v>
+      </c>
+      <c r="F10" s="14">
+        <f>G10/D10</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="2"/>
+        <v>378</v>
+      </c>
+      <c r="H10" s="11">
         <f t="shared" si="3"/>
-        <v>5.0892857142857135</v>
-      </c>
-      <c r="H6" s="9">
-        <f>SUM(J6:AE6)*B6/25/COUNTIF(J6:AE6,"&gt;0")</f>
-        <v>1094.0160000000001</v>
-      </c>
-      <c r="I6" s="1">
-        <v>152</v>
-      </c>
-      <c r="J6" s="1">
-        <v>18</v>
-      </c>
-      <c r="K6" s="1">
-        <v>28</v>
-      </c>
-      <c r="L6" s="1">
-        <v>20</v>
-      </c>
-      <c r="M6" s="1">
-        <v>20</v>
-      </c>
-      <c r="N6" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="1">
-        <v>359</v>
-      </c>
-      <c r="E7" s="4">
-        <f>F7/C7</f>
-        <v>2.2284122562674095E-2</v>
-      </c>
-      <c r="F7" s="1">
-        <f>SUM(I7:AE7)</f>
-        <v>8</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="1">
-        <v>451</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>7.0953436807095344E-2</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="1">
-        <v>300</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>0.28666666666666668</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="1">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="1">
-        <v>357</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.26890756302521007</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="E11" s="4"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="E12" s="4"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="E13" s="4"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="E14" s="4"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="E15" s="4"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="E16" s="4"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="E17" s="4"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="E18" s="4"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="E19" s="4"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="E20" s="4"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="E21" s="4"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="E22" s="4"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="E23" s="4"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="E24" s="4"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="E25" s="4"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="E26" s="4"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="6"/>
-      <c r="E27" s="2"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="6"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="6"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="6"/>
-      <c r="E30" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="4"/>
+        <v>1286.1200000000001</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="5"/>
+        <v>220</v>
+      </c>
+      <c r="K10" s="4">
+        <v>238</v>
+      </c>
+      <c r="L10" s="4">
+        <v>266</v>
+      </c>
+      <c r="M10" s="4">
+        <v>286</v>
+      </c>
+      <c r="N10" s="4">
+        <v>306</v>
+      </c>
+      <c r="O10" s="4">
+        <v>332</v>
+      </c>
+      <c r="P10" s="4">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:109">
+      <c r="A11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5">
+        <v>267</v>
+      </c>
+      <c r="C11" s="7">
+        <v>260</v>
+      </c>
+      <c r="D11" s="5">
+        <v>500</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" ref="E11" si="6">C11*D11</f>
+        <v>130000</v>
+      </c>
+      <c r="F11" s="14">
+        <f>G11/D11</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="11">
+        <f>MAX(J11:DE11)</f>
+        <v>500</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" ref="H11:H13" si="7">ROUNDUP((D11-G11)*C11/I11/25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <f>(MAX(K11:DE11)-B11)*C11/25/COUNTIF(K11:DE11,"&gt;0")</f>
+        <v>1211.5999999999999</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="5"/>
+        <v>267</v>
+      </c>
+      <c r="K11" s="4">
+        <v>437</v>
+      </c>
+      <c r="L11" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:109">
+      <c r="F12" s="14"/>
+      <c r="G12" s="11">
+        <f t="shared" ref="G12:G13" si="8">MAX(J12:DE12)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="11" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="11" t="e">
+        <f t="shared" ref="I12:I13" si="9">(MAX(K12:DE12)-B12)*C12/25/COUNTIF(K12:DE12,"&gt;0")</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:109">
+      <c r="F13" s="14"/>
+      <c r="G13" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="11" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:109">
+      <c r="F14" s="3"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:109">
+      <c r="F15" s="3"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:109">
+      <c r="F16" s="3"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="F17" s="3"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="F18" s="3"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="F19" s="3"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="F20" s="3"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="F21" s="3"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="F22" s="3"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="F23" s="3"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="F24" s="3"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="F25" s="3"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="F26" s="3"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="8"/>
+      <c r="F27" s="2"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="8"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="C29" s="8"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="8"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="A3:R30">
+    <sortCondition ref="F1"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E1:E26">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="F1:F10 F12:F26">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1025,8 +1508,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="E1:E10 E12:E1048576">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1039,8 +1522,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="F1:F10 F12:F1048576">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1053,8 +1536,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="I14:I1048576 I1:I2">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1067,11 +1550,64 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A3339404-AB19-B246-8301-0369A57EEEE2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9A166CB2-57CF-B945-ABDE-884C2E252EDA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3BBC28AD-5A85-004E-BCBB-F39D0CA581AF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I13">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CA456DB9-17E6-7746-A48D-C2B6D432CC34}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <ignoredErrors>
-    <ignoredError sqref="F8:F10 F3:F5 F6" emptyCellReference="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -1084,7 +1620,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E1:E26</xm:sqref>
+          <xm:sqref>F1:F10 F12:F26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{624D7F75-4626-074A-86C4-498A22F1F704}">
@@ -1097,7 +1633,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D1:D1048576</xm:sqref>
+          <xm:sqref>E1:E10 E12:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{94BD0EC2-81C2-8440-A7B4-B3ACAF4F313F}">
@@ -1110,7 +1646,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
+          <xm:sqref>F1:F10 F12:F1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5FF41A0A-C9D7-754C-A85E-F3E5B3BBB7DE}">
@@ -1123,7 +1659,57 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H1:H1048576</xm:sqref>
+          <xm:sqref>I14:I1048576 I1:I2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A3339404-AB19-B246-8301-0369A57EEEE2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9A166CB2-57CF-B945-ABDE-884C2E252EDA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3BBC28AD-5A85-004E-BCBB-F39D0CA581AF}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CA456DB9-17E6-7746-A48D-C2B6D432CC34}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I3:I13</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/书目进度.xlsx
+++ b/书目进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-440" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>书目</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -89,6 +89,10 @@
     <t>已读</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>把时间留给最重要的事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -148,14 +152,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="楷体"/>
       <charset val="134"/>
@@ -168,9 +164,17 @@
     </font>
     <font>
       <sz val="16"/>
-      <color rgb="FFFF0000"/>
+      <color theme="9"/>
       <name val="楷体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -225,41 +229,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -620,881 +624,892 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DE30"/>
+  <dimension ref="A1:DE31"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="10" customWidth="1"/>
-    <col min="10" max="10" width="3.5" style="4" customWidth="1"/>
-    <col min="11" max="109" width="3.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="9" customWidth="1"/>
+    <col min="10" max="10" width="3.5" style="2" customWidth="1"/>
+    <col min="11" max="109" width="3.6640625" style="2" customWidth="1"/>
     <col min="110" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:109" ht="27" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="2">
         <v>0</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="2">
         <v>1</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="2">
         <v>2</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="2">
         <v>3</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="2">
         <v>4</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="2">
         <v>5</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="2">
         <v>6</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1" s="2">
         <v>7</v>
       </c>
-      <c r="R1" s="4">
+      <c r="R1" s="2">
         <v>8</v>
       </c>
-      <c r="S1" s="4">
+      <c r="S1" s="2">
         <v>9</v>
       </c>
-      <c r="T1" s="4">
+      <c r="T1" s="2">
         <v>10</v>
       </c>
-      <c r="U1" s="4">
+      <c r="U1" s="2">
         <v>11</v>
       </c>
-      <c r="V1" s="4">
+      <c r="V1" s="2">
         <v>12</v>
       </c>
-      <c r="W1" s="4">
+      <c r="W1" s="2">
         <v>13</v>
       </c>
-      <c r="X1" s="4">
+      <c r="X1" s="2">
         <v>14</v>
       </c>
-      <c r="Y1" s="4">
+      <c r="Y1" s="2">
         <v>15</v>
       </c>
-      <c r="Z1" s="4">
+      <c r="Z1" s="2">
         <v>16</v>
       </c>
-      <c r="AA1" s="4">
+      <c r="AA1" s="2">
         <v>17</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="2">
         <v>18</v>
       </c>
-      <c r="AC1" s="4">
+      <c r="AC1" s="2">
         <v>19</v>
       </c>
-      <c r="AD1" s="4">
+      <c r="AD1" s="2">
         <v>20</v>
       </c>
-      <c r="AE1" s="4">
+      <c r="AE1" s="2">
         <v>21</v>
       </c>
-      <c r="AF1" s="4">
+      <c r="AF1" s="2">
         <v>22</v>
       </c>
-      <c r="AG1" s="4">
+      <c r="AG1" s="2">
         <v>23</v>
       </c>
-      <c r="AH1" s="4">
+      <c r="AH1" s="2">
         <v>24</v>
       </c>
-      <c r="AI1" s="4">
+      <c r="AI1" s="2">
         <v>25</v>
       </c>
-      <c r="AJ1" s="4">
+      <c r="AJ1" s="2">
         <v>26</v>
       </c>
-      <c r="AK1" s="4">
+      <c r="AK1" s="2">
         <v>27</v>
       </c>
-      <c r="AL1" s="4">
+      <c r="AL1" s="2">
         <v>28</v>
       </c>
-      <c r="AM1" s="4">
+      <c r="AM1" s="2">
         <v>29</v>
       </c>
-      <c r="AN1" s="4">
+      <c r="AN1" s="2">
         <v>30</v>
       </c>
-      <c r="AO1" s="4">
+      <c r="AO1" s="2">
         <v>31</v>
       </c>
-      <c r="AP1" s="4">
+      <c r="AP1" s="2">
         <v>32</v>
       </c>
-      <c r="AQ1" s="4">
+      <c r="AQ1" s="2">
         <v>33</v>
       </c>
-      <c r="AR1" s="4">
+      <c r="AR1" s="2">
         <v>34</v>
       </c>
-      <c r="AS1" s="4">
+      <c r="AS1" s="2">
         <v>35</v>
       </c>
-      <c r="AT1" s="4">
+      <c r="AT1" s="2">
         <v>36</v>
       </c>
-      <c r="AU1" s="4">
+      <c r="AU1" s="2">
         <v>37</v>
       </c>
-      <c r="AV1" s="4">
+      <c r="AV1" s="2">
         <v>38</v>
       </c>
-      <c r="AW1" s="4">
+      <c r="AW1" s="2">
         <v>39</v>
       </c>
-      <c r="AX1" s="4">
+      <c r="AX1" s="2">
         <v>40</v>
       </c>
-      <c r="AY1" s="4">
+      <c r="AY1" s="2">
         <v>41</v>
       </c>
-      <c r="AZ1" s="4">
+      <c r="AZ1" s="2">
         <v>42</v>
       </c>
-      <c r="BA1" s="4">
+      <c r="BA1" s="2">
         <v>43</v>
       </c>
-      <c r="BB1" s="4">
+      <c r="BB1" s="2">
         <v>44</v>
       </c>
-      <c r="BC1" s="4">
+      <c r="BC1" s="2">
         <v>45</v>
       </c>
-      <c r="BD1" s="4">
+      <c r="BD1" s="2">
         <v>46</v>
       </c>
-      <c r="BE1" s="4">
+      <c r="BE1" s="2">
         <v>47</v>
       </c>
-      <c r="BF1" s="4">
+      <c r="BF1" s="2">
         <v>48</v>
       </c>
-      <c r="BG1" s="4">
+      <c r="BG1" s="2">
         <v>49</v>
       </c>
-      <c r="BH1" s="4">
+      <c r="BH1" s="2">
         <v>50</v>
       </c>
-      <c r="BI1" s="4">
+      <c r="BI1" s="2">
         <v>51</v>
       </c>
-      <c r="BJ1" s="4">
+      <c r="BJ1" s="2">
         <v>52</v>
       </c>
-      <c r="BK1" s="4">
+      <c r="BK1" s="2">
         <v>53</v>
       </c>
-      <c r="BL1" s="4">
+      <c r="BL1" s="2">
         <v>54</v>
       </c>
-      <c r="BM1" s="4">
+      <c r="BM1" s="2">
         <v>55</v>
       </c>
-      <c r="BN1" s="4">
+      <c r="BN1" s="2">
         <v>56</v>
       </c>
-      <c r="BO1" s="4">
+      <c r="BO1" s="2">
         <v>57</v>
       </c>
-      <c r="BP1" s="4">
+      <c r="BP1" s="2">
         <v>58</v>
       </c>
-      <c r="BQ1" s="4">
+      <c r="BQ1" s="2">
         <v>59</v>
       </c>
-      <c r="BR1" s="4">
+      <c r="BR1" s="2">
         <v>60</v>
       </c>
-      <c r="BS1" s="4">
+      <c r="BS1" s="2">
         <v>61</v>
       </c>
-      <c r="BT1" s="4">
+      <c r="BT1" s="2">
         <v>62</v>
       </c>
-      <c r="BU1" s="4">
+      <c r="BU1" s="2">
         <v>63</v>
       </c>
-      <c r="BV1" s="4">
+      <c r="BV1" s="2">
         <v>64</v>
       </c>
-      <c r="BW1" s="4">
+      <c r="BW1" s="2">
         <v>65</v>
       </c>
-      <c r="BX1" s="4">
+      <c r="BX1" s="2">
         <v>66</v>
       </c>
-      <c r="BY1" s="4">
+      <c r="BY1" s="2">
         <v>67</v>
       </c>
-      <c r="BZ1" s="4">
+      <c r="BZ1" s="2">
         <v>68</v>
       </c>
-      <c r="CA1" s="4">
+      <c r="CA1" s="2">
         <v>69</v>
       </c>
-      <c r="CB1" s="4">
+      <c r="CB1" s="2">
         <v>70</v>
       </c>
-      <c r="CC1" s="4">
+      <c r="CC1" s="2">
         <v>71</v>
       </c>
-      <c r="CD1" s="4">
+      <c r="CD1" s="2">
         <v>72</v>
       </c>
-      <c r="CE1" s="4">
+      <c r="CE1" s="2">
         <v>73</v>
       </c>
-      <c r="CF1" s="4">
+      <c r="CF1" s="2">
         <v>74</v>
       </c>
-      <c r="CG1" s="4">
+      <c r="CG1" s="2">
         <v>75</v>
       </c>
-      <c r="CH1" s="4">
+      <c r="CH1" s="2">
         <v>76</v>
       </c>
-      <c r="CI1" s="4">
+      <c r="CI1" s="2">
         <v>77</v>
       </c>
-      <c r="CJ1" s="4">
+      <c r="CJ1" s="2">
         <v>78</v>
       </c>
-      <c r="CK1" s="4">
+      <c r="CK1" s="2">
         <v>79</v>
       </c>
-      <c r="CL1" s="4">
+      <c r="CL1" s="2">
         <v>80</v>
       </c>
-      <c r="CM1" s="4">
+      <c r="CM1" s="2">
         <v>81</v>
       </c>
-      <c r="CN1" s="4">
+      <c r="CN1" s="2">
         <v>82</v>
       </c>
-      <c r="CO1" s="4">
+      <c r="CO1" s="2">
         <v>83</v>
       </c>
-      <c r="CP1" s="4">
+      <c r="CP1" s="2">
         <v>84</v>
       </c>
-      <c r="CQ1" s="4">
+      <c r="CQ1" s="2">
         <v>85</v>
       </c>
-      <c r="CR1" s="4">
+      <c r="CR1" s="2">
         <v>86</v>
       </c>
-      <c r="CS1" s="4">
+      <c r="CS1" s="2">
         <v>87</v>
       </c>
-      <c r="CT1" s="4">
+      <c r="CT1" s="2">
         <v>88</v>
       </c>
-      <c r="CU1" s="4">
+      <c r="CU1" s="2">
         <v>89</v>
       </c>
-      <c r="CV1" s="4">
+      <c r="CV1" s="2">
         <v>90</v>
       </c>
-      <c r="CW1" s="4">
+      <c r="CW1" s="2">
         <v>91</v>
       </c>
-      <c r="CX1" s="4">
+      <c r="CX1" s="2">
         <v>92</v>
       </c>
-      <c r="CY1" s="4">
+      <c r="CY1" s="2">
         <v>93</v>
       </c>
-      <c r="CZ1" s="4">
+      <c r="CZ1" s="2">
         <v>94</v>
       </c>
-      <c r="DA1" s="4">
+      <c r="DA1" s="2">
         <v>95</v>
       </c>
-      <c r="DB1" s="4">
+      <c r="DB1" s="2">
         <v>96</v>
       </c>
-      <c r="DC1" s="4">
+      <c r="DC1" s="2">
         <v>97</v>
       </c>
-      <c r="DD1" s="4">
+      <c r="DD1" s="2">
         <v>98</v>
       </c>
-      <c r="DE1" s="4">
+      <c r="DE1" s="2">
         <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:109" hidden="1">
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="14">
-        <f t="shared" ref="F2:F10" si="0">G2/D2</f>
+      <c r="F2" s="11">
+        <f t="shared" ref="F2" si="0">G2/D2</f>
         <v>1</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>1</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:109">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>8</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5">
+      <c r="C3" s="5"/>
+      <c r="D3" s="3">
         <v>359</v>
       </c>
-      <c r="E3" s="5">
-        <f t="shared" ref="E3:E9" si="1">C3*D3</f>
+      <c r="E3" s="14">
+        <f t="shared" ref="E3:E10" si="1">C3*D3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="14">
-        <f>G3/D3</f>
+      <c r="F3" s="11">
+        <f t="shared" ref="F3:F12" si="2">G3/D3</f>
         <v>2.2284122562674095E-2</v>
       </c>
-      <c r="G3" s="11">
-        <f t="shared" ref="G3:G10" si="2">MAX(J3:DE3)</f>
+      <c r="G3" s="10">
+        <f t="shared" ref="G3:G11" si="3">MAX(J3:DE3)</f>
         <v>8</v>
       </c>
-      <c r="H3" s="11" t="e">
-        <f t="shared" ref="H3:H10" si="3">ROUNDUP((D3-G3)*C3/I3/25,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" s="11" t="e">
-        <f t="shared" ref="I3:I10" si="4">(MAX(K3:DE3)-B3)*C3/25/COUNTIF(K3:DE3,"&gt;0")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J3" s="9">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="7">
         <f>B3</f>
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:109">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>32</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="5">
+      <c r="C4" s="5"/>
+      <c r="D4" s="3">
         <v>451</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F4" s="14">
-        <f>G4/D4</f>
+      <c r="F4" s="11">
+        <f t="shared" si="2"/>
         <v>7.0953436807095344E-2</v>
       </c>
-      <c r="G4" s="11">
-        <f t="shared" si="2"/>
+      <c r="G4" s="10">
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="H4" s="11" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" s="11" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J4" s="9">
-        <f t="shared" ref="J4:J11" si="5">B4</f>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="7">
+        <f t="shared" ref="J4:J12" si="4">B4</f>
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:109">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>96</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5">
+      <c r="C5" s="5"/>
+      <c r="D5" s="3">
         <v>357</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F5" s="14">
-        <f>G5/D5</f>
+      <c r="F5" s="11">
+        <f t="shared" si="2"/>
         <v>0.26890756302521007</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="7">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:109">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3">
+        <v>94</v>
+      </c>
+      <c r="C6" s="5">
+        <v>860</v>
+      </c>
+      <c r="D6" s="3">
+        <v>263</v>
+      </c>
+      <c r="E6" s="14">
+        <f t="shared" si="1"/>
+        <v>226180</v>
+      </c>
+      <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="H5" s="11" t="e">
+        <v>0.60836501901140683</v>
+      </c>
+      <c r="G6" s="10">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="11" t="e">
+        <v>160</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10">
+        <f t="shared" ref="I6:I11" si="5">(MAX(K6:DE6)-B6)*C6/25/COUNTIF(K6:DE6,"&gt;0")</f>
+        <v>2270.4</v>
+      </c>
+      <c r="J6" s="7">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="9">
-        <f t="shared" si="5"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:109">
-      <c r="A6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:109">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B7" s="3">
         <v>86</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5">
+      <c r="C7" s="5"/>
+      <c r="D7" s="3">
         <v>300</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E7" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F6" s="14">
-        <f>G6/D6</f>
+      <c r="F7" s="11">
+        <f t="shared" si="2"/>
         <v>0.28666666666666668</v>
       </c>
-      <c r="G6" s="11">
-        <f t="shared" si="2"/>
+      <c r="G7" s="10">
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
-      <c r="H6" s="11" t="e">
-        <f t="shared" si="3"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="11" t="e">
+      <c r="J7" s="7">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="9">
-        <f t="shared" si="5"/>
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:109">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:109">
+      <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B8" s="3">
         <v>80</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C8" s="5">
         <v>672</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D8" s="3">
         <v>271</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E8" s="14">
         <f t="shared" si="1"/>
         <v>182112</v>
       </c>
-      <c r="F7" s="14">
-        <f>G7/D7</f>
+      <c r="F8" s="11">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G7" s="11">
-        <f t="shared" si="2"/>
+      <c r="G8" s="10">
+        <f t="shared" si="3"/>
         <v>271</v>
       </c>
-      <c r="H7" s="11">
-        <f t="shared" si="3"/>
+      <c r="H8" s="10">
+        <f t="shared" ref="H8:H11" si="6">ROUNDUP((D8-G8)*C8/I8/25,0)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I8" s="10">
+        <f t="shared" si="5"/>
+        <v>855.68</v>
+      </c>
+      <c r="J8" s="7">
         <f t="shared" si="4"/>
-        <v>855.68</v>
-      </c>
-      <c r="J7" s="9">
-        <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K8" s="2">
         <v>96</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L8" s="2">
         <v>124</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M8" s="2">
         <v>158</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N8" s="2">
         <v>174</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O8" s="2">
         <v>214</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P8" s="2">
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:109">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:109">
+      <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B9" s="3">
         <v>230</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="5">
         <v>690</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D9" s="3">
         <v>409</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E9" s="14">
         <f t="shared" si="1"/>
         <v>282210</v>
       </c>
-      <c r="F8" s="14">
-        <f>G8/D8</f>
+      <c r="F9" s="11">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G8" s="11">
-        <f t="shared" si="2"/>
+      <c r="G9" s="10">
+        <f t="shared" si="3"/>
         <v>409</v>
       </c>
-      <c r="H8" s="11">
-        <f t="shared" si="3"/>
+      <c r="H9" s="10">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I9" s="10">
+        <f t="shared" si="5"/>
+        <v>617.54999999999995</v>
+      </c>
+      <c r="J9" s="7">
         <f t="shared" si="4"/>
-        <v>617.54999999999995</v>
-      </c>
-      <c r="J8" s="9">
-        <f t="shared" si="5"/>
         <v>230</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K9" s="2">
         <v>246</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L9" s="2">
         <v>272</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M9" s="2">
         <v>304</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N9" s="2">
         <v>332</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O9" s="2">
         <v>354</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P9" s="2">
         <v>368</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q9" s="2">
         <v>388</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R9" s="2">
         <v>409</v>
       </c>
     </row>
-    <row r="9" spans="1:109">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:109">
+      <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B10" s="3">
         <v>267</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C10" s="5">
         <v>260</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D10" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E10" s="14">
         <f t="shared" si="1"/>
         <v>130000</v>
       </c>
-      <c r="F9" s="14">
-        <f>G9/D9</f>
+      <c r="F10" s="11">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G10" s="10">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="5"/>
+        <v>1211.5999999999999</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="4"/>
+        <v>267</v>
+      </c>
+      <c r="K10" s="2">
+        <v>441</v>
+      </c>
+      <c r="L10" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:109">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>220</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1221</v>
+      </c>
+      <c r="D11" s="3">
+        <v>378</v>
+      </c>
+      <c r="E11" s="14">
+        <f>C11*D11</f>
+        <v>461538</v>
+      </c>
+      <c r="F11" s="11">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="3"/>
+        <v>378</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="5"/>
+        <v>1286.1200000000001</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="K11" s="2">
+        <v>238</v>
+      </c>
+      <c r="L11" s="2">
+        <v>266</v>
+      </c>
+      <c r="M11" s="2">
+        <v>286</v>
+      </c>
+      <c r="N11" s="2">
+        <v>306</v>
+      </c>
+      <c r="O11" s="2">
+        <v>332</v>
+      </c>
+      <c r="P11" s="2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:109">
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>267</v>
+      </c>
+      <c r="C12" s="5">
+        <v>260</v>
+      </c>
+      <c r="D12" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="11">
-        <f t="shared" si="3"/>
+      <c r="E12" s="14">
+        <f t="shared" ref="E12" si="7">C12*D12</f>
+        <v>130000</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="10">
+        <f>MAX(J12:DE12)</f>
+        <v>500</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" ref="H12:H14" si="8">ROUNDUP((D12-G12)*C12/I12/25,0)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I12" s="10">
+        <f>(MAX(K12:DE12)-B12)*C12/25/COUNTIF(K12:DE12,"&gt;0")</f>
+        <v>1211.5999999999999</v>
+      </c>
+      <c r="J12" s="7">
         <f t="shared" si="4"/>
-        <v>1211.5999999999999</v>
-      </c>
-      <c r="J9" s="9">
-        <f t="shared" si="5"/>
         <v>267</v>
       </c>
-      <c r="K9" s="4">
-        <v>441</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="K12" s="2">
+        <v>437</v>
+      </c>
+      <c r="L12" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:109">
-      <c r="A10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5">
-        <v>220</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1221</v>
-      </c>
-      <c r="D10" s="5">
-        <v>378</v>
-      </c>
-      <c r="E10" s="5">
-        <f>C10*D10</f>
-        <v>461538</v>
-      </c>
-      <c r="F10" s="14">
-        <f>G10/D10</f>
-        <v>1</v>
-      </c>
-      <c r="G10" s="11">
-        <f t="shared" si="2"/>
-        <v>378</v>
-      </c>
-      <c r="H10" s="11">
-        <f t="shared" si="3"/>
+    <row r="13" spans="1:109">
+      <c r="F13" s="11"/>
+      <c r="G13" s="10">
+        <f t="shared" ref="G13" si="9">MAX(J13:DE13)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="11">
-        <f t="shared" si="4"/>
-        <v>1286.1200000000001</v>
-      </c>
-      <c r="J10" s="9">
-        <f t="shared" si="5"/>
-        <v>220</v>
-      </c>
-      <c r="K10" s="4">
-        <v>238</v>
-      </c>
-      <c r="L10" s="4">
-        <v>266</v>
-      </c>
-      <c r="M10" s="4">
-        <v>286</v>
-      </c>
-      <c r="N10" s="4">
-        <v>306</v>
-      </c>
-      <c r="O10" s="4">
-        <v>332</v>
-      </c>
-      <c r="P10" s="4">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="11" spans="1:109">
-      <c r="A11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="5">
-        <v>267</v>
-      </c>
-      <c r="C11" s="7">
-        <v>260</v>
-      </c>
-      <c r="D11" s="5">
-        <v>500</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" ref="E11" si="6">C11*D11</f>
-        <v>130000</v>
-      </c>
-      <c r="F11" s="14">
-        <f>G11/D11</f>
-        <v>1</v>
-      </c>
-      <c r="G11" s="11">
-        <f>MAX(J11:DE11)</f>
-        <v>500</v>
-      </c>
-      <c r="H11" s="11">
-        <f t="shared" ref="H11:H13" si="7">ROUNDUP((D11-G11)*C11/I11/25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
-        <f>(MAX(K11:DE11)-B11)*C11/25/COUNTIF(K11:DE11,"&gt;0")</f>
-        <v>1211.5999999999999</v>
-      </c>
-      <c r="J11" s="9">
-        <f t="shared" si="5"/>
-        <v>267</v>
-      </c>
-      <c r="K11" s="4">
-        <v>437</v>
-      </c>
-      <c r="L11" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:109">
-      <c r="F12" s="14"/>
-      <c r="G12" s="11">
-        <f t="shared" ref="G12:G13" si="8">MAX(J12:DE12)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="11" t="e">
-        <f t="shared" si="7"/>
+      <c r="H13" s="10" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="11" t="e">
-        <f t="shared" ref="I12:I13" si="9">(MAX(K12:DE12)-B12)*C12/25/COUNTIF(K12:DE12,"&gt;0")</f>
+      <c r="I13" s="10" t="e">
+        <f t="shared" ref="I13" si="10">(MAX(K13:DE13)-B13)*C13/25/COUNTIF(K13:DE13,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:109">
-      <c r="F13" s="14"/>
-      <c r="G13" s="11">
+    <row r="14" spans="1:109">
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="11" t="e">
-        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:109">
-      <c r="F14" s="3"/>
-      <c r="H14" s="11"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:109">
-      <c r="F15" s="3"/>
-      <c r="H15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:109">
-      <c r="F16" s="3"/>
-      <c r="H16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="F17" s="3"/>
-      <c r="H17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="F18" s="3"/>
-      <c r="H18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="F19" s="3"/>
-      <c r="H19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="3:8">
-      <c r="F20" s="3"/>
-      <c r="H20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="3:8">
-      <c r="F21" s="3"/>
-      <c r="H21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="3:8">
-      <c r="F22" s="3"/>
-      <c r="H22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="F23" s="3"/>
-      <c r="H23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="F24" s="3"/>
-      <c r="H24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="F25" s="3"/>
-      <c r="H25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="F26" s="3"/>
-      <c r="H26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="8"/>
-      <c r="F27" s="2"/>
-      <c r="H27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="8"/>
-      <c r="F28" s="2"/>
+      <c r="C28" s="6"/>
+      <c r="F28" s="12"/>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="8"/>
-      <c r="F29" s="2"/>
+      <c r="C29" s="6"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="8"/>
-      <c r="F30" s="2"/>
+      <c r="C30" s="6"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="3:8">
+      <c r="C31" s="6"/>
+      <c r="F31" s="12"/>
     </row>
   </sheetData>
   <sortState ref="A3:R30">
     <sortCondition ref="F1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F10 F12:F26">
+  <conditionalFormatting sqref="F13:F27 F1:F11">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -1508,7 +1523,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E10 E12:E1048576">
+  <conditionalFormatting sqref="E13:E1048576 E1:E11">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -1522,7 +1537,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F10 F12:F1048576">
+  <conditionalFormatting sqref="F13:F1048576 F1:F11">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -1536,7 +1551,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I1048576 I1:I2">
+  <conditionalFormatting sqref="I15:I1048576 I1:I2">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -1550,7 +1565,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
+  <conditionalFormatting sqref="F12">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -1564,7 +1579,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="E12">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -1578,7 +1593,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
+  <conditionalFormatting sqref="F12">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -1592,7 +1607,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I13">
+  <conditionalFormatting sqref="I3:I14">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1620,7 +1635,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F1:F10 F12:F26</xm:sqref>
+          <xm:sqref>F13:F27 F1:F11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{624D7F75-4626-074A-86C4-498A22F1F704}">
@@ -1633,7 +1648,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E1:E10 E12:E1048576</xm:sqref>
+          <xm:sqref>E13:E1048576 E1:E11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{94BD0EC2-81C2-8440-A7B4-B3ACAF4F313F}">
@@ -1646,7 +1661,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F1:F10 F12:F1048576</xm:sqref>
+          <xm:sqref>F13:F1048576 F1:F11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5FF41A0A-C9D7-754C-A85E-F3E5B3BBB7DE}">
@@ -1659,7 +1674,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I14:I1048576 I1:I2</xm:sqref>
+          <xm:sqref>I15:I1048576 I1:I2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A3339404-AB19-B246-8301-0369A57EEEE2}">
@@ -1670,7 +1685,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F11</xm:sqref>
+          <xm:sqref>F12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9A166CB2-57CF-B945-ABDE-884C2E252EDA}">
@@ -1683,7 +1698,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E11</xm:sqref>
+          <xm:sqref>E12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3BBC28AD-5A85-004E-BCBB-F39D0CA581AF}">
@@ -1696,7 +1711,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F11</xm:sqref>
+          <xm:sqref>F12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CA456DB9-17E6-7746-A48D-C2B6D432CC34}">
@@ -1709,7 +1724,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I3:I13</xm:sqref>
+          <xm:sqref>I3:I14</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/书目进度.xlsx
+++ b/书目进度.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>书目</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -92,6 +92,26 @@
   <si>
     <t>把时间留给最重要的事</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>习惯的力量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>失控</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据时代</t>
+  </si>
+  <si>
+    <t>别做正常的傻瓜</t>
+  </si>
+  <si>
+    <t>Facebook效应</t>
+  </si>
+  <si>
+    <t>被埋没的天才</t>
   </si>
 </sst>
 </file>
@@ -194,9 +214,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="28">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -267,7 +301,7 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="28">
+  <cellStyles count="42">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
@@ -283,6 +317,13 @@
     <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -296,6 +337,13 @@
     <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -624,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DE31"/>
+  <dimension ref="A1:DF30"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -641,12 +689,12 @@
     <col min="7" max="7" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.1640625" style="13" customWidth="1"/>
     <col min="9" max="9" width="11.5" style="9" customWidth="1"/>
-    <col min="10" max="10" width="3.5" style="2" customWidth="1"/>
-    <col min="11" max="109" width="3.6640625" style="2" customWidth="1"/>
-    <col min="110" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="11" width="3.5" style="2" customWidth="1"/>
+    <col min="12" max="110" width="3.6640625" style="2" customWidth="1"/>
+    <col min="111" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109" ht="27" customHeight="1">
+    <row r="1" spans="1:110" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -678,304 +726,307 @@
         <v>0</v>
       </c>
       <c r="K1" s="2">
+        <v>100</v>
+      </c>
+      <c r="L1" s="2">
         <v>1</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>2</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>3</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>4</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>5</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>6</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>7</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>8</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>9</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>10</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>11</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>12</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>13</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>14</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>15</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>16</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>17</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>18</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <v>19</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>20</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>21</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>22</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AH1" s="2">
         <v>23</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AI1" s="2">
         <v>24</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AJ1" s="2">
         <v>25</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AK1" s="2">
         <v>26</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AL1" s="2">
         <v>27</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AM1" s="2">
         <v>28</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AN1" s="2">
         <v>29</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AO1" s="2">
         <v>30</v>
       </c>
-      <c r="AO1" s="2">
+      <c r="AP1" s="2">
         <v>31</v>
       </c>
-      <c r="AP1" s="2">
+      <c r="AQ1" s="2">
         <v>32</v>
       </c>
-      <c r="AQ1" s="2">
+      <c r="AR1" s="2">
         <v>33</v>
       </c>
-      <c r="AR1" s="2">
+      <c r="AS1" s="2">
         <v>34</v>
       </c>
-      <c r="AS1" s="2">
+      <c r="AT1" s="2">
         <v>35</v>
       </c>
-      <c r="AT1" s="2">
+      <c r="AU1" s="2">
         <v>36</v>
       </c>
-      <c r="AU1" s="2">
+      <c r="AV1" s="2">
         <v>37</v>
       </c>
-      <c r="AV1" s="2">
+      <c r="AW1" s="2">
         <v>38</v>
       </c>
-      <c r="AW1" s="2">
+      <c r="AX1" s="2">
         <v>39</v>
       </c>
-      <c r="AX1" s="2">
+      <c r="AY1" s="2">
         <v>40</v>
       </c>
-      <c r="AY1" s="2">
+      <c r="AZ1" s="2">
         <v>41</v>
       </c>
-      <c r="AZ1" s="2">
+      <c r="BA1" s="2">
         <v>42</v>
       </c>
-      <c r="BA1" s="2">
+      <c r="BB1" s="2">
         <v>43</v>
       </c>
-      <c r="BB1" s="2">
+      <c r="BC1" s="2">
         <v>44</v>
       </c>
-      <c r="BC1" s="2">
+      <c r="BD1" s="2">
         <v>45</v>
       </c>
-      <c r="BD1" s="2">
+      <c r="BE1" s="2">
         <v>46</v>
       </c>
-      <c r="BE1" s="2">
+      <c r="BF1" s="2">
         <v>47</v>
       </c>
-      <c r="BF1" s="2">
+      <c r="BG1" s="2">
         <v>48</v>
       </c>
-      <c r="BG1" s="2">
+      <c r="BH1" s="2">
         <v>49</v>
       </c>
-      <c r="BH1" s="2">
+      <c r="BI1" s="2">
         <v>50</v>
       </c>
-      <c r="BI1" s="2">
+      <c r="BJ1" s="2">
         <v>51</v>
       </c>
-      <c r="BJ1" s="2">
+      <c r="BK1" s="2">
         <v>52</v>
       </c>
-      <c r="BK1" s="2">
+      <c r="BL1" s="2">
         <v>53</v>
       </c>
-      <c r="BL1" s="2">
+      <c r="BM1" s="2">
         <v>54</v>
       </c>
-      <c r="BM1" s="2">
+      <c r="BN1" s="2">
         <v>55</v>
       </c>
-      <c r="BN1" s="2">
+      <c r="BO1" s="2">
         <v>56</v>
       </c>
-      <c r="BO1" s="2">
+      <c r="BP1" s="2">
         <v>57</v>
       </c>
-      <c r="BP1" s="2">
+      <c r="BQ1" s="2">
         <v>58</v>
       </c>
-      <c r="BQ1" s="2">
+      <c r="BR1" s="2">
         <v>59</v>
       </c>
-      <c r="BR1" s="2">
+      <c r="BS1" s="2">
         <v>60</v>
       </c>
-      <c r="BS1" s="2">
+      <c r="BT1" s="2">
         <v>61</v>
       </c>
-      <c r="BT1" s="2">
+      <c r="BU1" s="2">
         <v>62</v>
       </c>
-      <c r="BU1" s="2">
+      <c r="BV1" s="2">
         <v>63</v>
       </c>
-      <c r="BV1" s="2">
+      <c r="BW1" s="2">
         <v>64</v>
       </c>
-      <c r="BW1" s="2">
+      <c r="BX1" s="2">
         <v>65</v>
       </c>
-      <c r="BX1" s="2">
+      <c r="BY1" s="2">
         <v>66</v>
       </c>
-      <c r="BY1" s="2">
+      <c r="BZ1" s="2">
         <v>67</v>
       </c>
-      <c r="BZ1" s="2">
+      <c r="CA1" s="2">
         <v>68</v>
       </c>
-      <c r="CA1" s="2">
+      <c r="CB1" s="2">
         <v>69</v>
       </c>
-      <c r="CB1" s="2">
+      <c r="CC1" s="2">
         <v>70</v>
       </c>
-      <c r="CC1" s="2">
+      <c r="CD1" s="2">
         <v>71</v>
       </c>
-      <c r="CD1" s="2">
+      <c r="CE1" s="2">
         <v>72</v>
       </c>
-      <c r="CE1" s="2">
+      <c r="CF1" s="2">
         <v>73</v>
       </c>
-      <c r="CF1" s="2">
+      <c r="CG1" s="2">
         <v>74</v>
       </c>
-      <c r="CG1" s="2">
+      <c r="CH1" s="2">
         <v>75</v>
       </c>
-      <c r="CH1" s="2">
+      <c r="CI1" s="2">
         <v>76</v>
       </c>
-      <c r="CI1" s="2">
+      <c r="CJ1" s="2">
         <v>77</v>
       </c>
-      <c r="CJ1" s="2">
+      <c r="CK1" s="2">
         <v>78</v>
       </c>
-      <c r="CK1" s="2">
+      <c r="CL1" s="2">
         <v>79</v>
       </c>
-      <c r="CL1" s="2">
+      <c r="CM1" s="2">
         <v>80</v>
       </c>
-      <c r="CM1" s="2">
+      <c r="CN1" s="2">
         <v>81</v>
       </c>
-      <c r="CN1" s="2">
+      <c r="CO1" s="2">
         <v>82</v>
       </c>
-      <c r="CO1" s="2">
+      <c r="CP1" s="2">
         <v>83</v>
       </c>
-      <c r="CP1" s="2">
+      <c r="CQ1" s="2">
         <v>84</v>
       </c>
-      <c r="CQ1" s="2">
+      <c r="CR1" s="2">
         <v>85</v>
       </c>
-      <c r="CR1" s="2">
+      <c r="CS1" s="2">
         <v>86</v>
       </c>
-      <c r="CS1" s="2">
+      <c r="CT1" s="2">
         <v>87</v>
       </c>
-      <c r="CT1" s="2">
+      <c r="CU1" s="2">
         <v>88</v>
       </c>
-      <c r="CU1" s="2">
+      <c r="CV1" s="2">
         <v>89</v>
       </c>
-      <c r="CV1" s="2">
+      <c r="CW1" s="2">
         <v>90</v>
       </c>
-      <c r="CW1" s="2">
+      <c r="CX1" s="2">
         <v>91</v>
       </c>
-      <c r="CX1" s="2">
+      <c r="CY1" s="2">
         <v>92</v>
       </c>
-      <c r="CY1" s="2">
+      <c r="CZ1" s="2">
         <v>93</v>
       </c>
-      <c r="CZ1" s="2">
+      <c r="DA1" s="2">
         <v>94</v>
       </c>
-      <c r="DA1" s="2">
+      <c r="DB1" s="2">
         <v>95</v>
       </c>
-      <c r="DB1" s="2">
+      <c r="DC1" s="2">
         <v>96</v>
       </c>
-      <c r="DC1" s="2">
+      <c r="DD1" s="2">
         <v>97</v>
       </c>
-      <c r="DD1" s="2">
+      <c r="DE1" s="2">
         <v>98</v>
       </c>
-      <c r="DE1" s="2">
+      <c r="DF1" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:109" hidden="1">
+    <row r="2" spans="1:110" hidden="1">
       <c r="D2" s="3">
         <v>1</v>
       </c>
@@ -988,7 +1039,7 @@
       </c>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:109">
+    <row r="3" spans="1:110">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1004,21 +1055,25 @@
         <v>0</v>
       </c>
       <c r="F3" s="11">
-        <f t="shared" ref="F3:F12" si="2">G3/D3</f>
+        <f t="shared" ref="F3:F16" si="2">G3/D3</f>
         <v>2.2284122562674095E-2</v>
       </c>
       <c r="G3" s="10">
-        <f t="shared" ref="G3:G11" si="3">MAX(J3:DE3)</f>
+        <f t="shared" ref="G3:G11" si="3">MAX(J3:DF3)</f>
         <v>8</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="10" t="e">
+        <f t="shared" ref="H3:H7" si="4">ROUNDUP((D3-G3)*C3/I3/25,0)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I3" s="10"/>
       <c r="J3" s="7">
         <f>B3</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:109">
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:110">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1041,14 +1096,18 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I4" s="10"/>
       <c r="J4" s="7">
-        <f t="shared" ref="J4:J12" si="4">B4</f>
+        <f t="shared" ref="J4:J17" si="5">B4</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:109">
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:110">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1071,14 +1130,18 @@
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I5" s="10"/>
       <c r="J5" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:109">
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:110">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1097,26 +1160,35 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>0.60836501901140683</v>
+        <v>1</v>
       </c>
       <c r="G6" s="10">
         <f t="shared" si="3"/>
+        <v>263</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" ref="I6:I16" si="6">(MAX(L6:DF6)-B6)*C6/25/COUNTIF(L6:DF6,"&gt;0")</f>
+        <v>2236</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="K6" s="2">
+        <v>263</v>
+      </c>
+      <c r="L6" s="2">
         <v>160</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10">
-        <f t="shared" ref="I6:I11" si="5">(MAX(K6:DE6)-B6)*C6/25/COUNTIF(K6:DE6,"&gt;0")</f>
-        <v>2270.4</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" si="4"/>
-        <v>94</v>
-      </c>
-      <c r="K6" s="2">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:109">
+      <c r="M6" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:110">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1139,17 +1211,21 @@
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I7" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="7">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" si="4"/>
         <v>86</v>
       </c>
-    </row>
-    <row r="8" spans="1:109">
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:110">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -1175,37 +1251,37 @@
         <v>271</v>
       </c>
       <c r="H8" s="10">
-        <f t="shared" ref="H8:H11" si="6">ROUNDUP((D8-G8)*C8/I8/25,0)</f>
+        <f t="shared" ref="H8:H11" si="7">ROUNDUP((D8-G8)*C8/I8/25,0)</f>
         <v>0</v>
       </c>
       <c r="I8" s="10">
+        <f t="shared" si="6"/>
+        <v>720.38400000000001</v>
+      </c>
+      <c r="J8" s="7">
         <f t="shared" si="5"/>
-        <v>855.68</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="7">
+        <v>271</v>
+      </c>
+      <c r="L8" s="2">
         <v>96</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>124</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>158</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <v>174</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
         <v>214</v>
       </c>
-      <c r="P8" s="2">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:109">
+    </row>
+    <row r="9" spans="1:110">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -1231,43 +1307,43 @@
         <v>409</v>
       </c>
       <c r="H9" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="10">
+        <v>622.97142857142865</v>
+      </c>
+      <c r="J9" s="7">
         <f t="shared" si="5"/>
-        <v>617.54999999999995</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="4"/>
         <v>230</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="7">
+        <v>409</v>
+      </c>
+      <c r="L9" s="2">
         <v>246</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>272</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>304</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>332</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <v>354</v>
       </c>
-      <c r="P9" s="2">
+      <c r="Q9" s="2">
         <v>368</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="R9" s="2">
         <v>388</v>
       </c>
-      <c r="R9" s="2">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="10" spans="1:109">
+    </row>
+    <row r="10" spans="1:110">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1293,25 +1369,25 @@
         <v>500</v>
       </c>
       <c r="H10" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="10">
+        <v>1809.6</v>
+      </c>
+      <c r="J10" s="7">
         <f t="shared" si="5"/>
-        <v>1211.5999999999999</v>
-      </c>
-      <c r="J10" s="7">
-        <f t="shared" si="4"/>
         <v>267</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="7">
+        <v>500</v>
+      </c>
+      <c r="L10" s="2">
         <v>441</v>
       </c>
-      <c r="L10" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:109">
+    </row>
+    <row r="11" spans="1:110">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1337,180 +1413,358 @@
         <v>378</v>
       </c>
       <c r="H11" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="10">
+        <v>1094.0160000000001</v>
+      </c>
+      <c r="J11" s="7">
         <f t="shared" si="5"/>
-        <v>1286.1200000000001</v>
-      </c>
-      <c r="J11" s="7">
-        <f t="shared" si="4"/>
         <v>220</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="7">
+        <v>378</v>
+      </c>
+      <c r="L11" s="2">
         <v>238</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>266</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>286</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>306</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P11" s="2">
         <v>332</v>
       </c>
-      <c r="P11" s="2">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="12" spans="1:109">
+    </row>
+    <row r="12" spans="1:110">
       <c r="A12" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="C12" s="5">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="D12" s="3">
-        <v>500</v>
+        <v>308</v>
       </c>
       <c r="E12" s="14">
-        <f t="shared" ref="E12" si="7">C12*D12</f>
-        <v>130000</v>
+        <f t="shared" ref="E12:E16" si="8">C12*D12</f>
+        <v>166320</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G12" s="10">
-        <f>MAX(J12:DE12)</f>
-        <v>500</v>
+        <f>MAX(J12:DF12)</f>
+        <v>308</v>
       </c>
       <c r="H12" s="10">
-        <f t="shared" ref="H12:H14" si="8">ROUNDUP((D12-G12)*C12/I12/25,0)</f>
+        <f t="shared" ref="H12:H18" si="9">ROUNDUP((D12-G12)*C12/I12/25,0)</f>
         <v>0</v>
       </c>
       <c r="I12" s="10">
-        <f>(MAX(K12:DE12)-B12)*C12/25/COUNTIF(K12:DE12,"&gt;0")</f>
-        <v>1211.5999999999999</v>
-      </c>
-      <c r="J12" s="7">
-        <f t="shared" si="4"/>
-        <v>267</v>
+        <f t="shared" si="6"/>
+        <v>1235.52</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>437</v>
+        <v>308</v>
       </c>
       <c r="L12" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:109">
-      <c r="F13" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="M12" s="2">
+        <v>130</v>
+      </c>
+      <c r="N12" s="2">
+        <v>180</v>
+      </c>
+      <c r="O12" s="2">
+        <v>242</v>
+      </c>
+      <c r="P12" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:110">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>600</v>
+      </c>
+      <c r="D13" s="3">
+        <v>289</v>
+      </c>
+      <c r="E13" s="14">
+        <f t="shared" si="8"/>
+        <v>173400</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="G13" s="10">
-        <f t="shared" ref="G13" si="9">MAX(J13:DE13)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="10" t="e">
+        <f>MAX(J13:DF13)</f>
+        <v>289</v>
+      </c>
+      <c r="H13" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="6"/>
+        <v>1928</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>289</v>
+      </c>
+      <c r="L13" s="2">
+        <v>93</v>
+      </c>
+      <c r="M13" s="2">
+        <v>177</v>
+      </c>
+      <c r="N13" s="2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:110">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="E14" s="14">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="11" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="10" t="e">
-        <f t="shared" ref="I13" si="10">(MAX(K13:DE13)-B13)*C13/25/COUNTIF(K13:DE13,"&gt;0")</f>
+      <c r="G14" s="10">
+        <f t="shared" ref="G14:G18" si="10">MAX(J14:DF14)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="10" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="14" spans="1:109">
-      <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10" t="e">
+      <c r="I14" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:110">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="E15" s="14">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="11" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:109">
-      <c r="F15" s="11"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:109">
-      <c r="F16" s="11"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="3:8">
+      <c r="G15" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:110">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1023</v>
+      </c>
+      <c r="D16" s="3">
+        <v>312</v>
+      </c>
+      <c r="E16" s="14">
+        <f t="shared" si="8"/>
+        <v>319176</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="10"/>
+        <v>312</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="6"/>
+        <v>1235.7840000000001</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K16" s="2">
+        <v>312</v>
+      </c>
+      <c r="L16" s="2">
+        <v>63</v>
+      </c>
+      <c r="M16" s="2">
+        <v>83</v>
+      </c>
+      <c r="N16" s="2">
+        <v>109</v>
+      </c>
+      <c r="O16" s="2">
+        <v>129</v>
+      </c>
+      <c r="P16" s="2">
+        <v>149</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>167</v>
+      </c>
+      <c r="R16" s="2">
+        <v>191</v>
+      </c>
+      <c r="S16" s="2">
+        <v>213</v>
+      </c>
+      <c r="T16" s="2">
+        <v>257</v>
+      </c>
+      <c r="U16" s="2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="F17" s="11"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="3:8">
+      <c r="G17" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="F18" s="11"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="3:8">
+      <c r="G18" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="F19" s="11"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="3:8">
+    <row r="20" spans="1:10">
       <c r="F20" s="11"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="3:8">
+    <row r="21" spans="1:10">
       <c r="F21" s="11"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="3:8">
+    <row r="22" spans="1:10">
       <c r="F22" s="11"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="3:8">
+    <row r="23" spans="1:10">
       <c r="F23" s="11"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="3:8">
+    <row r="24" spans="1:10">
       <c r="F24" s="11"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="3:8">
+    <row r="25" spans="1:10">
       <c r="F25" s="11"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="3:8">
+    <row r="26" spans="1:10">
       <c r="F26" s="11"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="3:8">
-      <c r="F27" s="11"/>
+    <row r="27" spans="1:10">
+      <c r="C27" s="6"/>
+      <c r="F27" s="12"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="3:8">
+    <row r="28" spans="1:10">
       <c r="C28" s="6"/>
       <c r="F28" s="12"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="3:8">
+    </row>
+    <row r="29" spans="1:10">
       <c r="C29" s="6"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="3:8">
+    <row r="30" spans="1:10">
       <c r="C30" s="6"/>
       <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="3:8">
-      <c r="C31" s="6"/>
-      <c r="F31" s="12"/>
     </row>
   </sheetData>
   <sortState ref="A3:R30">
     <sortCondition ref="F1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F13:F27 F1:F11">
-    <cfRule type="dataBar" priority="12">
+  <conditionalFormatting sqref="F1:F26">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1523,8 +1777,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E1048576 E1:E11">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1537,8 +1791,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F1048576 F1:F11">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1551,8 +1805,36 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I1048576 I1:I2">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{82C3A14D-3405-F34B-8A23-8F4005713DB0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I16">
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CA456DB9-17E6-7746-A48D-C2B6D432CC34}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I1048576 I1:I2">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1561,62 +1843,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{5FF41A0A-C9D7-754C-A85E-F3E5B3BBB7DE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A3339404-AB19-B246-8301-0369A57EEEE2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9A166CB2-57CF-B945-ABDE-884C2E252EDA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF008AEF"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3BBC28AD-5A85-004E-BCBB-F39D0CA581AF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I14">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CA456DB9-17E6-7746-A48D-C2B6D432CC34}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1635,7 +1861,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F13:F27 F1:F11</xm:sqref>
+          <xm:sqref>F1:F26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{624D7F75-4626-074A-86C4-498A22F1F704}">
@@ -1648,7 +1874,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E13:E1048576 E1:E11</xm:sqref>
+          <xm:sqref>E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{94BD0EC2-81C2-8440-A7B4-B3ACAF4F313F}">
@@ -1661,7 +1887,33 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F13:F1048576 F1:F11</xm:sqref>
+          <xm:sqref>F1:F1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{82C3A14D-3405-F34B-8A23-8F4005713DB0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CA456DB9-17E6-7746-A48D-C2B6D432CC34}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I3:I16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5FF41A0A-C9D7-754C-A85E-F3E5B3BBB7DE}">
@@ -1674,57 +1926,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I15:I1048576 I1:I2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A3339404-AB19-B246-8301-0369A57EEEE2}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9A166CB2-57CF-B945-ABDE-884C2E252EDA}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFF555A"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3BBC28AD-5A85-004E-BCBB-F39D0CA581AF}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF008AEF"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CA456DB9-17E6-7746-A48D-C2B6D432CC34}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFFB628"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I3:I14</xm:sqref>
+          <xm:sqref>I17:I1048576 I1:I2</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/书目进度.xlsx
+++ b/书目进度.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-440" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>书目</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -111,7 +111,24 @@
     <t>Facebook效应</t>
   </si>
   <si>
-    <t>被埋没的天才</t>
+    <t>生活在别处</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>私密的神话：梦之解析</t>
+  </si>
+  <si>
+    <t>梦的解析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超越自卑</t>
+  </si>
+  <si>
+    <t>做梦的艺术</t>
+  </si>
+  <si>
+    <t>特斯拉回忆录</t>
   </si>
 </sst>
 </file>
@@ -214,9 +231,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -301,7 +322,7 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="46">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
@@ -324,6 +345,8 @@
     <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -344,6 +367,8 @@
     <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -672,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DF30"/>
+  <dimension ref="A1:DF31"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -1031,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="11">
-        <f t="shared" ref="F2" si="0">G2/D2</f>
+        <f t="shared" ref="F2:F23" si="0">G2/D2</f>
         <v>1</v>
       </c>
       <c r="G2" s="9">
@@ -1051,22 +1076,25 @@
         <v>359</v>
       </c>
       <c r="E3" s="14">
-        <f t="shared" ref="E3:E10" si="1">C3*D3</f>
+        <f>C3*D3</f>
         <v>0</v>
       </c>
       <c r="F3" s="11">
-        <f t="shared" ref="F3:F16" si="2">G3/D3</f>
+        <f>G3/D3</f>
         <v>2.2284122562674095E-2</v>
       </c>
       <c r="G3" s="10">
-        <f t="shared" ref="G3:G11" si="3">MAX(J3:DF3)</f>
+        <f>MAX(J3:DF3)</f>
         <v>8</v>
       </c>
       <c r="H3" s="10" t="e">
-        <f t="shared" ref="H3:H7" si="4">ROUNDUP((D3-G3)*C3/I3/25,0)</f>
+        <f>ROUNDUP((D3-G3)*C3/I3/25,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I3" s="10"/>
+      <c r="I3" s="10" t="e">
+        <f>(MAX(L3:DF3)-B3)*C3/25/COUNTIF(L3:DF3,"&gt;0")</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J3" s="7">
         <f>B3</f>
         <v>8</v>
@@ -1075,37 +1103,50 @@
     </row>
     <row r="4" spans="1:110">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3">
-        <v>32</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="C4" s="5">
+        <v>840</v>
+      </c>
       <c r="D4" s="3">
-        <v>451</v>
+        <v>727</v>
       </c>
       <c r="E4" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C4*D4</f>
+        <v>610680</v>
       </c>
       <c r="F4" s="11">
-        <f t="shared" si="2"/>
-        <v>7.0953436807095344E-2</v>
+        <f>G4/D4</f>
+        <v>0.23108665749656121</v>
       </c>
       <c r="G4" s="10">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="H4" s="10" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="7">
-        <f t="shared" ref="J4:J17" si="5">B4</f>
-        <v>32</v>
-      </c>
-      <c r="K4" s="7"/>
+        <f>MAX(J4:DF4)</f>
+        <v>168</v>
+      </c>
+      <c r="H4" s="10">
+        <f>ROUNDUP((D4-G4)*C4/I4/25,0)</f>
+        <v>20</v>
+      </c>
+      <c r="I4" s="10">
+        <f>(MAX(L4:DF4)-B4)*C4/25/COUNTIF(L4:DF4,"&gt;0")</f>
+        <v>974.4</v>
+      </c>
+      <c r="J4" s="2">
+        <f>B4</f>
+        <v>81</v>
+      </c>
+      <c r="L4" s="2">
+        <v>95</v>
+      </c>
+      <c r="M4" s="2">
+        <v>135</v>
+      </c>
+      <c r="N4" s="2">
+        <v>168</v>
+      </c>
     </row>
     <row r="5" spans="1:110">
       <c r="A5" s="3" t="s">
@@ -1119,494 +1160,532 @@
         <v>357</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" si="1"/>
+        <f>C5*D5</f>
         <v>0</v>
       </c>
       <c r="F5" s="11">
-        <f t="shared" si="2"/>
+        <f>G5/D5</f>
         <v>0.26890756302521007</v>
       </c>
       <c r="G5" s="10">
-        <f t="shared" si="3"/>
+        <f>MAX(J5:DF5)</f>
         <v>96</v>
       </c>
       <c r="H5" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f>ROUNDUP((D5-G5)*C5/I5/25,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="10" t="e">
+        <f>(MAX(L5:DF5)-B5)*C5/25/COUNTIF(L5:DF5,"&gt;0")</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J5" s="7">
-        <f t="shared" si="5"/>
+        <f>B5</f>
         <v>96</v>
       </c>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:110">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3">
-        <v>94</v>
-      </c>
-      <c r="C6" s="5">
-        <v>860</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="3">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="E6" s="14">
-        <f t="shared" si="1"/>
-        <v>226180</v>
+        <f>C6*D6</f>
+        <v>0</v>
       </c>
       <c r="F6" s="11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>G6/D6</f>
+        <v>0.28666666666666668</v>
       </c>
       <c r="G6" s="10">
-        <f t="shared" si="3"/>
-        <v>263</v>
-      </c>
-      <c r="H6" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="10">
-        <f t="shared" ref="I6:I16" si="6">(MAX(L6:DF6)-B6)*C6/25/COUNTIF(L6:DF6,"&gt;0")</f>
-        <v>2236</v>
+        <f>MAX(J6:DF6)</f>
+        <v>86</v>
+      </c>
+      <c r="H6" s="10" t="e">
+        <f>ROUNDUP((D6-G6)*C6/I6/25,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="10" t="e">
+        <f>(MAX(L6:DF6)-B6)*C6/25/COUNTIF(L6:DF6,"&gt;0")</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" si="5"/>
-        <v>94</v>
-      </c>
-      <c r="K6" s="2">
-        <v>263</v>
-      </c>
-      <c r="L6" s="2">
-        <v>160</v>
-      </c>
-      <c r="M6" s="2">
-        <v>224</v>
-      </c>
+        <f>B6</f>
+        <v>86</v>
+      </c>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:110">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3">
-        <v>86</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="C7" s="5">
+        <v>950</v>
+      </c>
       <c r="D7" s="3">
-        <v>300</v>
+        <v>451</v>
       </c>
       <c r="E7" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C7*D7</f>
+        <v>428450</v>
       </c>
       <c r="F7" s="11">
-        <f t="shared" si="2"/>
-        <v>0.28666666666666668</v>
+        <f>G7/D7</f>
+        <v>0.38359201773835921</v>
       </c>
       <c r="G7" s="10">
-        <f t="shared" si="3"/>
-        <v>86</v>
-      </c>
-      <c r="H7" s="10" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <f>MAX(J7:DF7)</f>
+        <v>173</v>
+      </c>
+      <c r="H7" s="10">
+        <f>ROUNDUP((D7-G7)*C7/I7/25,0)</f>
+        <v>8</v>
+      </c>
+      <c r="I7" s="10">
+        <f>(MAX(L7:DF7)-B7)*C7/25/COUNTIF(L7:DF7,"&gt;0")</f>
+        <v>1339.5</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" si="5"/>
-        <v>86</v>
+        <f>B7</f>
+        <v>32</v>
       </c>
       <c r="K7" s="7"/>
+      <c r="L7" s="2">
+        <v>67</v>
+      </c>
+      <c r="M7" s="2">
+        <v>97</v>
+      </c>
+      <c r="N7" s="2">
+        <v>131</v>
+      </c>
+      <c r="O7" s="2">
+        <v>173</v>
+      </c>
     </row>
     <row r="8" spans="1:110">
       <c r="A8" s="3" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5">
-        <v>672</v>
+        <v>391</v>
       </c>
       <c r="D8" s="3">
-        <v>271</v>
+        <v>139</v>
       </c>
       <c r="E8" s="14">
-        <f t="shared" si="1"/>
-        <v>182112</v>
+        <f>C8*D8</f>
+        <v>54349</v>
       </c>
       <c r="F8" s="11">
-        <f t="shared" si="2"/>
+        <f>G8/D8</f>
         <v>1</v>
       </c>
       <c r="G8" s="10">
-        <f t="shared" si="3"/>
-        <v>271</v>
+        <f>MAX(J8:DF8)</f>
+        <v>139</v>
       </c>
       <c r="H8" s="10">
-        <f t="shared" ref="H8:H11" si="7">ROUNDUP((D8-G8)*C8/I8/25,0)</f>
+        <f>ROUNDUP((D8-G8)*C8/I8/25,0)</f>
         <v>0</v>
       </c>
       <c r="I8" s="10">
-        <f t="shared" si="6"/>
-        <v>720.38400000000001</v>
+        <f>(MAX(L8:DF8)-B8)*C8/25/COUNTIF(L8:DF8,"&gt;0")</f>
+        <v>1485.8</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" si="5"/>
-        <v>80</v>
+        <f>B8</f>
+        <v>16</v>
       </c>
       <c r="K8" s="7">
-        <v>271</v>
+        <v>139</v>
       </c>
       <c r="L8" s="2">
-        <v>96</v>
-      </c>
-      <c r="M8" s="2">
-        <v>124</v>
-      </c>
-      <c r="N8" s="2">
-        <v>158</v>
-      </c>
-      <c r="O8" s="2">
-        <v>174</v>
-      </c>
-      <c r="P8" s="2">
-        <v>214</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:110">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
-        <v>230</v>
+        <v>94</v>
       </c>
       <c r="C9" s="5">
-        <v>690</v>
+        <v>860</v>
       </c>
       <c r="D9" s="3">
-        <v>409</v>
+        <v>263</v>
       </c>
       <c r="E9" s="14">
-        <f t="shared" si="1"/>
-        <v>282210</v>
+        <f>C9*D9</f>
+        <v>226180</v>
       </c>
       <c r="F9" s="11">
-        <f t="shared" si="2"/>
+        <f>G9/D9</f>
         <v>1</v>
       </c>
       <c r="G9" s="10">
-        <f t="shared" si="3"/>
-        <v>409</v>
+        <f>MAX(J9:DF9)</f>
+        <v>263</v>
       </c>
       <c r="H9" s="10">
-        <f t="shared" si="7"/>
+        <f>ROUNDUP((D9-G9)*C9/I9/25,0)</f>
         <v>0</v>
       </c>
       <c r="I9" s="10">
-        <f t="shared" si="6"/>
-        <v>622.97142857142865</v>
+        <f>(MAX(L9:DF9)-B9)*C9/25/COUNTIF(L9:DF9,"&gt;0")</f>
+        <v>2236</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" si="5"/>
-        <v>230</v>
-      </c>
-      <c r="K9" s="7">
-        <v>409</v>
+        <f>B9</f>
+        <v>94</v>
+      </c>
+      <c r="K9" s="2">
+        <v>263</v>
       </c>
       <c r="L9" s="2">
-        <v>246</v>
+        <v>160</v>
       </c>
       <c r="M9" s="2">
-        <v>272</v>
-      </c>
-      <c r="N9" s="2">
-        <v>304</v>
-      </c>
-      <c r="O9" s="2">
-        <v>332</v>
-      </c>
-      <c r="P9" s="2">
-        <v>354</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>368</v>
-      </c>
-      <c r="R9" s="2">
-        <v>388</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:110">
       <c r="A10" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" s="3">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="C10" s="5">
-        <v>260</v>
+        <v>672</v>
       </c>
       <c r="D10" s="3">
-        <v>500</v>
+        <v>271</v>
       </c>
       <c r="E10" s="14">
-        <f t="shared" si="1"/>
-        <v>130000</v>
+        <f>C10*D10</f>
+        <v>182112</v>
       </c>
       <c r="F10" s="11">
-        <f t="shared" si="2"/>
+        <f>G10/D10</f>
         <v>1</v>
       </c>
       <c r="G10" s="10">
-        <f t="shared" si="3"/>
-        <v>500</v>
+        <f>MAX(J10:DF10)</f>
+        <v>271</v>
       </c>
       <c r="H10" s="10">
-        <f t="shared" si="7"/>
+        <f>ROUNDUP((D10-G10)*C10/I10/25,0)</f>
         <v>0</v>
       </c>
       <c r="I10" s="10">
-        <f t="shared" si="6"/>
-        <v>1809.6</v>
+        <f>(MAX(L10:DF10)-B10)*C10/25/COUNTIF(L10:DF10,"&gt;0")</f>
+        <v>720.38400000000001</v>
       </c>
       <c r="J10" s="7">
-        <f t="shared" si="5"/>
-        <v>267</v>
+        <f>B10</f>
+        <v>80</v>
       </c>
       <c r="K10" s="7">
-        <v>500</v>
+        <v>271</v>
       </c>
       <c r="L10" s="2">
-        <v>441</v>
+        <v>96</v>
+      </c>
+      <c r="M10" s="2">
+        <v>124</v>
+      </c>
+      <c r="N10" s="2">
+        <v>158</v>
+      </c>
+      <c r="O10" s="2">
+        <v>174</v>
+      </c>
+      <c r="P10" s="2">
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:110">
       <c r="A11" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B11" s="3">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C11" s="5">
-        <v>1221</v>
+        <v>690</v>
       </c>
       <c r="D11" s="3">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="E11" s="14">
         <f>C11*D11</f>
-        <v>461538</v>
+        <v>282210</v>
       </c>
       <c r="F11" s="11">
-        <f t="shared" si="2"/>
+        <f>G11/D11</f>
         <v>1</v>
       </c>
       <c r="G11" s="10">
-        <f t="shared" si="3"/>
-        <v>378</v>
+        <f>MAX(J11:DF11)</f>
+        <v>409</v>
       </c>
       <c r="H11" s="10">
-        <f t="shared" si="7"/>
+        <f>ROUNDUP((D11-G11)*C11/I11/25,0)</f>
         <v>0</v>
       </c>
       <c r="I11" s="10">
-        <f t="shared" si="6"/>
-        <v>1094.0160000000001</v>
+        <f>(MAX(L11:DF11)-B11)*C11/25/COUNTIF(L11:DF11,"&gt;0")</f>
+        <v>622.97142857142865</v>
       </c>
       <c r="J11" s="7">
-        <f t="shared" si="5"/>
-        <v>220</v>
+        <f>B11</f>
+        <v>230</v>
       </c>
       <c r="K11" s="7">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="L11" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="M11" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="N11" s="2">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="O11" s="2">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="P11" s="2">
-        <v>332</v>
+        <v>354</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>368</v>
+      </c>
+      <c r="R11" s="2">
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:110">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B12" s="3">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="C12" s="5">
-        <v>540</v>
+        <v>260</v>
       </c>
       <c r="D12" s="3">
-        <v>308</v>
+        <v>500</v>
       </c>
       <c r="E12" s="14">
-        <f t="shared" ref="E12:E16" si="8">C12*D12</f>
-        <v>166320</v>
+        <f>C12*D12</f>
+        <v>130000</v>
       </c>
       <c r="F12" s="11">
-        <f t="shared" si="2"/>
+        <f>G12/D12</f>
         <v>1</v>
       </c>
       <c r="G12" s="10">
         <f>MAX(J12:DF12)</f>
-        <v>308</v>
+        <v>500</v>
       </c>
       <c r="H12" s="10">
-        <f t="shared" ref="H12:H18" si="9">ROUNDUP((D12-G12)*C12/I12/25,0)</f>
+        <f>ROUNDUP((D12-G12)*C12/I12/25,0)</f>
         <v>0</v>
       </c>
       <c r="I12" s="10">
-        <f t="shared" si="6"/>
-        <v>1235.52</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>308</v>
+        <f>(MAX(L12:DF12)-B12)*C12/25/COUNTIF(L12:DF12,"&gt;0")</f>
+        <v>1809.6</v>
+      </c>
+      <c r="J12" s="7">
+        <f>B12</f>
+        <v>267</v>
+      </c>
+      <c r="K12" s="7">
+        <v>500</v>
       </c>
       <c r="L12" s="2">
-        <v>64</v>
-      </c>
-      <c r="M12" s="2">
-        <v>130</v>
-      </c>
-      <c r="N12" s="2">
-        <v>180</v>
-      </c>
-      <c r="O12" s="2">
-        <v>242</v>
-      </c>
-      <c r="P12" s="2">
-        <v>286</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:110">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B13" s="3">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="C13" s="5">
-        <v>600</v>
+        <v>1221</v>
       </c>
       <c r="D13" s="3">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="E13" s="14">
-        <f t="shared" si="8"/>
-        <v>173400</v>
+        <f>C13*D13</f>
+        <v>461538</v>
       </c>
       <c r="F13" s="11">
-        <f t="shared" si="2"/>
+        <f>G13/D13</f>
         <v>1</v>
       </c>
       <c r="G13" s="10">
         <f>MAX(J13:DF13)</f>
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="H13" s="10">
-        <f t="shared" si="9"/>
+        <f>ROUNDUP((D13-G13)*C13/I13/25,0)</f>
         <v>0</v>
       </c>
       <c r="I13" s="10">
-        <f t="shared" si="6"/>
-        <v>1928</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>289</v>
+        <f>(MAX(L13:DF13)-B13)*C13/25/COUNTIF(L13:DF13,"&gt;0")</f>
+        <v>1094.0160000000001</v>
+      </c>
+      <c r="J13" s="7">
+        <f>B13</f>
+        <v>220</v>
+      </c>
+      <c r="K13" s="7">
+        <v>378</v>
       </c>
       <c r="L13" s="2">
-        <v>93</v>
+        <v>238</v>
       </c>
       <c r="M13" s="2">
-        <v>177</v>
+        <v>266</v>
       </c>
       <c r="N13" s="2">
-        <v>241</v>
+        <v>286</v>
+      </c>
+      <c r="O13" s="2">
+        <v>306</v>
+      </c>
+      <c r="P13" s="2">
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:110">
       <c r="A14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>540</v>
+      </c>
+      <c r="D14" s="3">
+        <v>308</v>
+      </c>
       <c r="E14" s="14">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f>C14*D14</f>
+        <v>166320</v>
+      </c>
+      <c r="F14" s="11">
+        <f>G14/D14</f>
+        <v>1</v>
       </c>
       <c r="G14" s="10">
-        <f t="shared" ref="G14:G18" si="10">MAX(J14:DF14)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="10" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <f>MAX(J14:DF14)</f>
+        <v>308</v>
+      </c>
+      <c r="H14" s="10">
+        <f>ROUNDUP((D14-G14)*C14/I14/25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
+        <f>(MAX(L14:DF14)-B14)*C14/25/COUNTIF(L14:DF14,"&gt;0")</f>
+        <v>1235.52</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>B14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>308</v>
+      </c>
+      <c r="L14" s="2">
+        <v>64</v>
+      </c>
+      <c r="M14" s="2">
+        <v>130</v>
+      </c>
+      <c r="N14" s="2">
+        <v>180</v>
+      </c>
+      <c r="O14" s="2">
+        <v>242</v>
+      </c>
+      <c r="P14" s="2">
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:110">
       <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>600</v>
+      </c>
+      <c r="D15" s="3">
+        <v>289</v>
+      </c>
       <c r="E15" s="14">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f>C15*D15</f>
+        <v>173400</v>
+      </c>
+      <c r="F15" s="11">
+        <f>G15/D15</f>
+        <v>1</v>
       </c>
       <c r="G15" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="10" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="10" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <f>MAX(J15:DF15)</f>
+        <v>289</v>
+      </c>
+      <c r="H15" s="10">
+        <f>ROUNDUP((D15-G15)*C15/I15/25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
+        <f>(MAX(L15:DF15)-B15)*C15/25/COUNTIF(L15:DF15,"&gt;0")</f>
+        <v>1928</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>B15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>289</v>
+      </c>
+      <c r="L15" s="2">
+        <v>93</v>
+      </c>
+      <c r="M15" s="2">
+        <v>177</v>
+      </c>
+      <c r="N15" s="2">
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:110">
@@ -1623,27 +1702,27 @@
         <v>312</v>
       </c>
       <c r="E16" s="14">
-        <f t="shared" si="8"/>
+        <f>C16*D16</f>
         <v>319176</v>
       </c>
       <c r="F16" s="11">
-        <f t="shared" si="2"/>
+        <f>G16/D16</f>
         <v>1</v>
       </c>
       <c r="G16" s="10">
-        <f t="shared" si="10"/>
+        <f>MAX(J16:DF16)</f>
         <v>312</v>
       </c>
       <c r="H16" s="10">
-        <f t="shared" si="9"/>
+        <f>ROUNDUP((D16-G16)*C16/I16/25,0)</f>
         <v>0</v>
       </c>
       <c r="I16" s="10">
-        <f t="shared" si="6"/>
+        <f>(MAX(L16:DF16)-B16)*C16/25/COUNTIF(L16:DF16,"&gt;0")</f>
         <v>1235.7840000000001</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="5"/>
+        <f>B16</f>
         <v>10</v>
       </c>
       <c r="K16" s="2">
@@ -1680,90 +1759,480 @@
         <v>312</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:20">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>715</v>
+      </c>
+      <c r="D17" s="3">
+        <v>211</v>
+      </c>
+      <c r="E17" s="14">
+        <f>C17*D17</f>
+        <v>150865</v>
+      </c>
+      <c r="F17" s="11">
+        <f>G17/D17</f>
+        <v>1</v>
+      </c>
       <c r="G17" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f>MAX(J17:DF17)</f>
+        <v>211</v>
+      </c>
+      <c r="H17" s="10">
+        <f>ROUNDUP((D17-G17)*C17/I17/25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="10">
+        <f>(MAX(L17:DF17)-B17)*C17/25/COUNTIF(L17:DF17,"&gt;0")</f>
+        <v>670.51111111111118</v>
+      </c>
+      <c r="J17" s="2">
+        <f>B17</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>19</v>
+      </c>
+      <c r="M17" s="2">
+        <v>36</v>
+      </c>
+      <c r="N17" s="2">
+        <v>55</v>
+      </c>
+      <c r="O17" s="2">
+        <v>83</v>
+      </c>
+      <c r="P17" s="2">
+        <v>105</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>130</v>
+      </c>
+      <c r="R17" s="2">
+        <v>156</v>
+      </c>
+      <c r="S17" s="2">
+        <v>178</v>
+      </c>
+      <c r="T17" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>750</v>
+      </c>
+      <c r="D18" s="3">
+        <v>339</v>
+      </c>
+      <c r="E18" s="14">
+        <f>C18*D18</f>
+        <v>254250</v>
+      </c>
+      <c r="F18" s="11">
+        <f>G18/D18</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="10">
+        <f>MAX(J18:DF18)</f>
+        <v>339</v>
+      </c>
+      <c r="H18" s="10">
+        <f>ROUNDUP((D18-G18)*C18/I18/25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="10">
+        <f>(MAX(L18:DF18)-B18)*C18/25/COUNTIF(L18:DF18,"&gt;0")</f>
+        <v>1100</v>
+      </c>
+      <c r="J18" s="2">
+        <f>B18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>339</v>
+      </c>
+      <c r="L18" s="2">
+        <v>41</v>
+      </c>
+      <c r="M18" s="2">
+        <v>72</v>
+      </c>
+      <c r="N18" s="2">
+        <v>101</v>
+      </c>
+      <c r="O18" s="2">
+        <v>121</v>
+      </c>
+      <c r="P18" s="2">
+        <v>163</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>205</v>
+      </c>
+      <c r="R18" s="2">
+        <v>239</v>
+      </c>
+      <c r="S18" s="2">
+        <v>287</v>
+      </c>
+      <c r="T18" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3">
+        <v>228</v>
+      </c>
+      <c r="C19" s="5">
+        <v>606</v>
+      </c>
+      <c r="D19" s="3">
+        <v>458</v>
+      </c>
+      <c r="E19" s="14">
+        <f>C19*D19</f>
+        <v>277548</v>
+      </c>
+      <c r="F19" s="11">
+        <f>G19/D19</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="10">
+        <f>MAX(J19:DF19)</f>
+        <v>458</v>
+      </c>
+      <c r="H19" s="10">
+        <f>ROUNDUP((D19-G19)*C19/I19/25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
+        <f>(MAX(L19:DF19)-B19)*C19/25/COUNTIF(L19:DF19,"&gt;0")</f>
+        <v>2278.56</v>
+      </c>
+      <c r="J19" s="2">
+        <f>B19</f>
+        <v>228</v>
+      </c>
+      <c r="K19" s="2">
+        <v>458</v>
+      </c>
+      <c r="L19" s="2">
+        <v>364</v>
+      </c>
+      <c r="M19" s="2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3">
+        <v>20</v>
+      </c>
+      <c r="C20" s="5">
+        <v>575</v>
+      </c>
+      <c r="D20" s="3">
+        <v>356</v>
+      </c>
+      <c r="E20" s="14">
+        <f>C20*D20</f>
+        <v>204700</v>
+      </c>
+      <c r="F20" s="11">
+        <f>G20/D20</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="10">
+        <f>MAX(J20:DF20)</f>
+        <v>356</v>
+      </c>
+      <c r="H20" s="10">
+        <f>ROUNDUP((D20-G20)*C20/I20/25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="10">
+        <f>(MAX(L20:DF20)-B20)*C20/25/COUNTIF(L20:DF20,"&gt;0")</f>
+        <v>1288</v>
+      </c>
+      <c r="J20" s="2">
+        <f>B20</f>
+        <v>20</v>
+      </c>
+      <c r="L20" s="2">
+        <v>93</v>
+      </c>
+      <c r="M20" s="2">
+        <v>145</v>
+      </c>
+      <c r="N20" s="2">
+        <v>189</v>
+      </c>
+      <c r="O20" s="2">
+        <v>241</v>
+      </c>
+      <c r="P20" s="2">
+        <v>303</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1353</v>
+      </c>
+      <c r="D21" s="3">
+        <v>90</v>
+      </c>
+      <c r="E21" s="14">
+        <f>C21*D21</f>
+        <v>121770</v>
+      </c>
+      <c r="F21" s="11">
+        <f>G21/D21</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="10">
+        <f>MAX(J21:DF21)</f>
+        <v>90</v>
+      </c>
+      <c r="H21" s="10">
+        <f>ROUNDUP((D21-G21)*C21/I21/25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="10">
+        <f>(MAX(L21:DF21)-B21)*C21/25/COUNTIF(L21:DF21,"&gt;0")</f>
+        <v>1623.6000000000001</v>
+      </c>
+      <c r="J21" s="2">
+        <f>B21</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>23</v>
+      </c>
+      <c r="M21" s="2">
+        <v>61</v>
+      </c>
+      <c r="N21" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="E22" s="14">
+        <f>C22*D22</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="11" t="e">
+        <f>G22/D22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="F18" s="11"/>
-      <c r="G18" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="10" t="e">
-        <f t="shared" si="9"/>
+      <c r="G22" s="10">
+        <f>MAX(J22:DF22)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="10" t="e">
+        <f>ROUNDUP((D22-G22)*C22/I22/25,0)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="F19" s="11"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="F20" s="11"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="F21" s="11"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="F22" s="11"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="F23" s="11"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="I22" s="10" t="e">
+        <f>(MAX(L22:DF22)-B22)*C22/25/COUNTIF(L22:DF22,"&gt;0")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" s="2">
+        <f>B22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="C23" s="5"/>
+      <c r="E23" s="14">
+        <f>C23*D23</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="11" t="e">
+        <f>G23/D23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" s="10">
+        <f>MAX(J23:DF23)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="10" t="e">
+        <f>ROUNDUP((D23-G23)*C23/I23/25,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="10" t="e">
+        <f>(MAX(L23:DF23)-B23)*C23/25/COUNTIF(L23:DF23,"&gt;0")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" s="2">
+        <f>B23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="C24" s="5"/>
       <c r="F24" s="11"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="G24" s="10">
+        <f>MAX(J24:DF24)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="10" t="e">
+        <f>ROUNDUP((D24-G24)*C24/I24/25,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" s="2">
+        <f>B24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="C25" s="5"/>
       <c r="F25" s="11"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="G25" s="10">
+        <f>MAX(J25:DF25)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="10" t="e">
+        <f>ROUNDUP((D25-G25)*C25/I25/25,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="2">
+        <f>B25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="C26" s="5"/>
       <c r="F26" s="11"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="C27" s="6"/>
-      <c r="F27" s="12"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="C28" s="6"/>
+      <c r="G26" s="10">
+        <f>MAX(J26:DF26)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="10" t="e">
+        <f>ROUNDUP((D26-G26)*C26/I26/25,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" s="2">
+        <f>B26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="C27" s="5"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="10">
+        <f>MAX(J27:DF27)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="10" t="e">
+        <f>ROUNDUP((D27-G27)*C27/I27/25,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" s="2">
+        <f>B27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="C28" s="5"/>
       <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="C29" s="6"/>
+      <c r="G28" s="10">
+        <f>MAX(J28:DF28)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="10" t="e">
+        <f>ROUNDUP((D28-G28)*C28/I28/25,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="2">
+        <f>B28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="C29" s="5"/>
       <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="G29" s="10">
+        <f>MAX(J29:DF29)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="10" t="e">
+        <f>ROUNDUP((D29-G29)*C29/I29/25,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" s="2">
+        <f>B29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="C30" s="6"/>
       <c r="F30" s="12"/>
+      <c r="G30" s="10">
+        <f>MAX(J30:DF30)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="10" t="e">
+        <f>ROUNDUP((D30-G30)*C30/I30/25,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" s="2">
+        <f>B30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="C31" s="6"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="10">
+        <f>MAX(J31:DF31)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="10" t="e">
+        <f>ROUNDUP((D31-G31)*C31/I31/25,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" s="2">
+        <f>B31</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A3:R30">
+  <sortState ref="A3:DF31">
     <sortCondition ref="F1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F26">
+  <conditionalFormatting sqref="F1:F27">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
@@ -1819,7 +2288,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I16">
+  <conditionalFormatting sqref="I3:I23">
     <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
@@ -1833,7 +2302,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I1048576 I1:I2">
+  <conditionalFormatting sqref="I24:I1048576 I1:I2">
     <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="min"/>
@@ -1861,7 +2330,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F1:F26</xm:sqref>
+          <xm:sqref>F1:F27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{624D7F75-4626-074A-86C4-498A22F1F704}">
@@ -1913,7 +2382,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I3:I16</xm:sqref>
+          <xm:sqref>I3:I23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5FF41A0A-C9D7-754C-A85E-F3E5B3BBB7DE}">
@@ -1926,7 +2395,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I17:I1048576 I1:I2</xm:sqref>
+          <xm:sqref>I24:I1048576 I1:I2</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/书目进度.xlsx
+++ b/书目进度.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>书目</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -105,9 +105,6 @@
     <t>大数据时代</t>
   </si>
   <si>
-    <t>别做正常的傻瓜</t>
-  </si>
-  <si>
     <t>Facebook效应</t>
   </si>
   <si>
@@ -129,15 +126,70 @@
   </si>
   <si>
     <t>特斯拉回忆录</t>
+  </si>
+  <si>
+    <t>自控力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我也有一个梦想</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你永远都无法叫醒一个装睡的人</t>
+  </si>
+  <si>
+    <t>Head.First.iPhone.and.iPad.Development.3rd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少有人走的路2</t>
+  </si>
+  <si>
+    <t>少有人走的路3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活法3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活法4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息简史</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>意志力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>极客与怪杰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNR iOS.Programming 4th</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS.7.Programming.Cookbook</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -231,9 +283,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="46">
+  <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -296,9 +360,6 @@
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -321,8 +382,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="46">
+  <cellStyles count="58">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
@@ -347,6 +411,12 @@
     <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -369,6 +439,12 @@
     <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -697,23 +773,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DF31"/>
+  <dimension ref="A1:DF46"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="8" customWidth="1"/>
     <col min="10" max="11" width="3.5" style="2" customWidth="1"/>
     <col min="12" max="110" width="3.6640625" style="2" customWidth="1"/>
     <col min="111" max="16384" width="10.83203125" style="1"/>
@@ -732,19 +808,19 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="J1" s="2">
@@ -1055,1197 +1131,2111 @@
       <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="11">
-        <f t="shared" ref="F2:F23" si="0">G2/D2</f>
+      <c r="F2" s="10">
+        <f t="shared" ref="F2" si="0">G2/D2</f>
         <v>1</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>1</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:110">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="C3" s="5">
+        <v>221</v>
+      </c>
       <c r="D3" s="3">
-        <v>359</v>
-      </c>
-      <c r="E3" s="14">
-        <f>C3*D3</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
-        <f>G3/D3</f>
-        <v>2.2284122562674095E-2</v>
-      </c>
-      <c r="G3" s="10">
-        <f>MAX(J3:DF3)</f>
-        <v>8</v>
-      </c>
-      <c r="H3" s="10" t="e">
-        <f>ROUNDUP((D3-G3)*C3/I3/25,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" s="10" t="e">
-        <f>(MAX(L3:DF3)-B3)*C3/25/COUNTIF(L3:DF3,"&gt;0")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J3" s="7">
-        <f>B3</f>
-        <v>8</v>
-      </c>
-      <c r="K3" s="7"/>
+        <v>1029</v>
+      </c>
+      <c r="E3" s="13">
+        <f t="shared" ref="E3:E40" si="1">C3*D3</f>
+        <v>227409</v>
+      </c>
+      <c r="F3" s="10">
+        <f t="shared" ref="F3:F40" si="2">G3/D3</f>
+        <v>9.23226433430515E-2</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" ref="G3:G46" si="3">MAX(J3:DF3)</f>
+        <v>95</v>
+      </c>
+      <c r="H3" s="14">
+        <f t="shared" ref="H3:H37" si="4">(D3-G3)*C3/I3/25</f>
+        <v>87.173333333333346</v>
+      </c>
+      <c r="I3" s="9">
+        <f t="shared" ref="I3:I37" si="5">(MAX(L3:DF3)-B3)*C3/25/COUNTIF(L3:DF3,"&gt;0")</f>
+        <v>94.714285714285708</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" ref="J3:J37" si="6">B3</f>
+        <v>20</v>
+      </c>
+      <c r="L3" s="2">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2">
+        <v>42</v>
+      </c>
+      <c r="N3" s="2">
+        <v>60</v>
+      </c>
+      <c r="O3" s="2">
+        <v>70</v>
+      </c>
+      <c r="P3" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>85</v>
+      </c>
+      <c r="R3" s="2">
+        <v>95</v>
+      </c>
     </row>
     <row r="4" spans="1:110">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>81</v>
-      </c>
-      <c r="C4" s="5">
-        <v>840</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="3">
-        <v>727</v>
-      </c>
-      <c r="E4" s="14">
-        <f>C4*D4</f>
-        <v>610680</v>
-      </c>
-      <c r="F4" s="11">
-        <f>G4/D4</f>
-        <v>0.23108665749656121</v>
-      </c>
-      <c r="G4" s="10">
-        <f>MAX(J4:DF4)</f>
-        <v>168</v>
-      </c>
-      <c r="H4" s="10">
-        <f>ROUNDUP((D4-G4)*C4/I4/25,0)</f>
-        <v>20</v>
-      </c>
-      <c r="I4" s="10">
-        <f>(MAX(L4:DF4)-B4)*C4/25/COUNTIF(L4:DF4,"&gt;0")</f>
-        <v>974.4</v>
-      </c>
-      <c r="J4" s="2">
-        <f>B4</f>
-        <v>81</v>
-      </c>
-      <c r="L4" s="2">
-        <v>95</v>
-      </c>
-      <c r="M4" s="2">
-        <v>135</v>
-      </c>
-      <c r="N4" s="2">
-        <v>168</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="E4" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" si="2"/>
+        <v>2.2284122562674095E-2</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="H4" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:110">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3">
-        <v>96</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>-22</v>
+      </c>
+      <c r="C5" s="5">
+        <v>810</v>
+      </c>
       <c r="D5" s="3">
-        <v>357</v>
-      </c>
-      <c r="E5" s="14">
-        <f>C5*D5</f>
-        <v>0</v>
+        <v>371</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" si="1"/>
+        <v>300510</v>
       </c>
       <c r="F5" s="11">
-        <f>G5/D5</f>
-        <v>0.26890756302521007</v>
-      </c>
-      <c r="G5" s="10">
-        <f>MAX(J5:DF5)</f>
-        <v>96</v>
-      </c>
-      <c r="H5" s="10" t="e">
-        <f>ROUNDUP((D5-G5)*C5/I5/25,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="10" t="e">
-        <f>(MAX(L5:DF5)-B5)*C5/25/COUNTIF(L5:DF5,"&gt;0")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="7">
-        <f>B5</f>
-        <v>96</v>
-      </c>
-      <c r="K5" s="7"/>
+        <f t="shared" si="2"/>
+        <v>2.4258760107816711E-2</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="H5" s="14">
+        <f t="shared" si="4"/>
+        <v>11.67741935483871</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="5"/>
+        <v>1004.4</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="6"/>
+        <v>-22</v>
+      </c>
+      <c r="L5" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:110">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="3">
-        <v>300</v>
-      </c>
-      <c r="E6" s="14">
-        <f>C6*D6</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="11">
-        <f>G6/D6</f>
-        <v>0.28666666666666668</v>
-      </c>
-      <c r="G6" s="10">
-        <f>MAX(J6:DF6)</f>
-        <v>86</v>
-      </c>
-      <c r="H6" s="10" t="e">
-        <f>ROUNDUP((D6-G6)*C6/I6/25,0)</f>
+        <v>357</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="2"/>
+        <v>0.26890756302521007</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="H6" s="14" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="10" t="e">
-        <f>(MAX(L6:DF6)-B6)*C6/25/COUNTIF(L6:DF6,"&gt;0")</f>
+      <c r="I6" s="9" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="7">
-        <f>B6</f>
-        <v>86</v>
-      </c>
-      <c r="K6" s="7"/>
+      <c r="J6" s="6">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:110">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3">
-        <v>32</v>
-      </c>
-      <c r="C7" s="5">
-        <v>950</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="3">
-        <v>451</v>
-      </c>
-      <c r="E7" s="14">
-        <f>C7*D7</f>
-        <v>428450</v>
-      </c>
-      <c r="F7" s="11">
-        <f>G7/D7</f>
-        <v>0.38359201773835921</v>
-      </c>
-      <c r="G7" s="10">
-        <f>MAX(J7:DF7)</f>
-        <v>173</v>
-      </c>
-      <c r="H7" s="10">
-        <f>ROUNDUP((D7-G7)*C7/I7/25,0)</f>
-        <v>8</v>
-      </c>
-      <c r="I7" s="10">
-        <f>(MAX(L7:DF7)-B7)*C7/25/COUNTIF(L7:DF7,"&gt;0")</f>
-        <v>1339.5</v>
-      </c>
-      <c r="J7" s="7">
-        <f>B7</f>
-        <v>32</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="2">
-        <v>67</v>
-      </c>
-      <c r="M7" s="2">
-        <v>97</v>
-      </c>
-      <c r="N7" s="2">
-        <v>131</v>
-      </c>
-      <c r="O7" s="2">
-        <v>173</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="2"/>
+        <v>0.28666666666666668</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="H7" s="14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:110">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C8" s="5">
-        <v>391</v>
+        <v>950</v>
       </c>
       <c r="D8" s="3">
-        <v>139</v>
-      </c>
-      <c r="E8" s="14">
-        <f>C8*D8</f>
-        <v>54349</v>
-      </c>
-      <c r="F8" s="11">
-        <f>G8/D8</f>
-        <v>1</v>
-      </c>
-      <c r="G8" s="10">
-        <f>MAX(J8:DF8)</f>
-        <v>139</v>
-      </c>
-      <c r="H8" s="10">
-        <f>ROUNDUP((D8-G8)*C8/I8/25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="10">
-        <f>(MAX(L8:DF8)-B8)*C8/25/COUNTIF(L8:DF8,"&gt;0")</f>
-        <v>1485.8</v>
-      </c>
-      <c r="J8" s="7">
-        <f>B8</f>
-        <v>16</v>
-      </c>
-      <c r="K8" s="7">
-        <v>139</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="1"/>
+        <v>402800</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="2"/>
+        <v>0.66509433962264153</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="3"/>
+        <v>282</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" si="4"/>
+        <v>3.021276595744681</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="5"/>
+        <v>1786</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="6"/>
       <c r="L8" s="2">
-        <v>111</v>
+        <v>67</v>
+      </c>
+      <c r="M8" s="2">
+        <v>97</v>
+      </c>
+      <c r="N8" s="2">
+        <v>131</v>
+      </c>
+      <c r="O8" s="2">
+        <v>147</v>
+      </c>
+      <c r="P8" s="2">
+        <v>221</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:110">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B9" s="3">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="C9" s="5">
-        <v>860</v>
+        <v>246</v>
       </c>
       <c r="D9" s="3">
-        <v>263</v>
-      </c>
-      <c r="E9" s="14">
-        <f>C9*D9</f>
-        <v>226180</v>
+        <v>542</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="1"/>
+        <v>133332</v>
       </c>
       <c r="F9" s="11">
-        <f>G9/D9</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G9" s="10">
-        <f>MAX(J9:DF9)</f>
-        <v>263</v>
-      </c>
-      <c r="H9" s="10">
-        <f>ROUNDUP((D9-G9)*C9/I9/25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="10">
-        <f>(MAX(L9:DF9)-B9)*C9/25/COUNTIF(L9:DF9,"&gt;0")</f>
-        <v>2236</v>
-      </c>
-      <c r="J9" s="7">
-        <f>B9</f>
-        <v>94</v>
+      <c r="G9" s="9">
+        <f t="shared" si="3"/>
+        <v>542</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="5"/>
+        <v>79.013731343283581</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>263</v>
+        <v>542</v>
       </c>
       <c r="L9" s="2">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="M9" s="2">
-        <v>224</v>
+        <v>47</v>
+      </c>
+      <c r="N9" s="2">
+        <v>66</v>
+      </c>
+      <c r="O9" s="2">
+        <v>68</v>
+      </c>
+      <c r="P9" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>77</v>
+      </c>
+      <c r="R9" s="2">
+        <v>82</v>
+      </c>
+      <c r="S9" s="2">
+        <v>87</v>
+      </c>
+      <c r="T9" s="2">
+        <v>92</v>
+      </c>
+      <c r="U9" s="2">
+        <v>100</v>
+      </c>
+      <c r="V9" s="2">
+        <v>108</v>
+      </c>
+      <c r="W9" s="2">
+        <v>118</v>
+      </c>
+      <c r="X9" s="2">
+        <v>128</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>138</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>149</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>154</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>168</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>172</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>179</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>205</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>209</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>221</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>229</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>237</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>248</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>255</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>260</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>268</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>273</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>276</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>279</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>282</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>292</v>
+      </c>
+      <c r="AU9" s="2">
+        <v>295</v>
+      </c>
+      <c r="AV9" s="2">
+        <v>300</v>
+      </c>
+      <c r="AW9" s="2">
+        <v>307</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>317</v>
+      </c>
+      <c r="AY9" s="2">
+        <v>322</v>
+      </c>
+      <c r="AZ9" s="2">
+        <v>332</v>
+      </c>
+      <c r="BA9" s="2">
+        <v>344</v>
+      </c>
+      <c r="BB9" s="2">
+        <v>349</v>
+      </c>
+      <c r="BC9" s="2">
+        <v>353</v>
+      </c>
+      <c r="BD9" s="2">
+        <v>358</v>
+      </c>
+      <c r="BE9" s="2">
+        <v>371</v>
+      </c>
+      <c r="BF9" s="2">
+        <v>376</v>
+      </c>
+      <c r="BG9" s="2">
+        <v>379</v>
+      </c>
+      <c r="BH9" s="2">
+        <v>384</v>
+      </c>
+      <c r="BI9" s="2">
+        <v>392</v>
+      </c>
+      <c r="BJ9" s="2">
+        <v>396</v>
+      </c>
+      <c r="BK9" s="2">
+        <v>400</v>
+      </c>
+      <c r="BL9" s="2">
+        <v>404</v>
+      </c>
+      <c r="BM9" s="2">
+        <v>412</v>
+      </c>
+      <c r="BN9" s="2">
+        <v>422</v>
+      </c>
+      <c r="BO9" s="2">
+        <v>426</v>
+      </c>
+      <c r="BP9" s="2">
+        <v>435</v>
+      </c>
+      <c r="BQ9" s="2">
+        <v>444</v>
+      </c>
+      <c r="BR9" s="2">
+        <v>452</v>
+      </c>
+      <c r="BS9" s="2">
+        <v>458</v>
+      </c>
+      <c r="BT9" s="2">
+        <v>463</v>
+      </c>
+      <c r="BU9" s="2">
+        <v>471</v>
+      </c>
+      <c r="BV9" s="2">
+        <v>485</v>
+      </c>
+      <c r="BW9" s="2">
+        <v>493</v>
+      </c>
+      <c r="BX9" s="2">
+        <v>521</v>
+      </c>
+      <c r="BY9" s="2">
+        <v>532</v>
+      </c>
+      <c r="BZ9" s="2">
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:110">
       <c r="A10" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" s="5">
-        <v>672</v>
+        <v>840</v>
       </c>
       <c r="D10" s="3">
-        <v>271</v>
-      </c>
-      <c r="E10" s="14">
-        <f>C10*D10</f>
-        <v>182112</v>
-      </c>
-      <c r="F10" s="11">
-        <f>G10/D10</f>
+        <v>700</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="1"/>
+        <v>588000</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G10" s="10">
-        <f>MAX(J10:DF10)</f>
-        <v>271</v>
-      </c>
-      <c r="H10" s="10">
-        <f>ROUNDUP((D10-G10)*C10/I10/25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="10">
-        <f>(MAX(L10:DF10)-B10)*C10/25/COUNTIF(L10:DF10,"&gt;0")</f>
-        <v>720.38400000000001</v>
-      </c>
-      <c r="J10" s="7">
-        <f>B10</f>
-        <v>80</v>
-      </c>
-      <c r="K10" s="7">
-        <v>271</v>
+      <c r="G10" s="9">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="5"/>
+        <v>1728.8727272727272</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="K10" s="2">
+        <v>700</v>
       </c>
       <c r="L10" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M10" s="2">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="N10" s="2">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="O10" s="2">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="P10" s="2">
-        <v>214</v>
+        <v>226</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>309</v>
+      </c>
+      <c r="R10" s="2">
+        <v>384</v>
+      </c>
+      <c r="S10" s="2">
+        <v>482</v>
+      </c>
+      <c r="T10" s="2">
+        <v>540</v>
+      </c>
+      <c r="U10" s="2">
+        <v>604</v>
+      </c>
+      <c r="V10" s="2">
+        <v>647</v>
       </c>
     </row>
     <row r="11" spans="1:110">
       <c r="A11" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="C11" s="5">
-        <v>690</v>
+        <v>176</v>
       </c>
       <c r="D11" s="3">
-        <v>409</v>
-      </c>
-      <c r="E11" s="14">
-        <f>C11*D11</f>
-        <v>282210</v>
-      </c>
-      <c r="F11" s="11">
-        <f>G11/D11</f>
+        <v>357</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="1"/>
+        <v>62832</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G11" s="10">
-        <f>MAX(J11:DF11)</f>
-        <v>409</v>
-      </c>
-      <c r="H11" s="10">
-        <f>ROUNDUP((D11-G11)*C11/I11/25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="10">
-        <f>(MAX(L11:DF11)-B11)*C11/25/COUNTIF(L11:DF11,"&gt;0")</f>
-        <v>622.97142857142865</v>
-      </c>
-      <c r="J11" s="7">
-        <f>B11</f>
-        <v>230</v>
-      </c>
-      <c r="K11" s="7">
-        <v>409</v>
+      <c r="G11" s="9">
+        <f t="shared" si="3"/>
+        <v>357</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="5"/>
+        <v>93.279999999999987</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="6"/>
+        <v>180</v>
+      </c>
+      <c r="K11" s="2">
+        <v>357</v>
       </c>
       <c r="L11" s="2">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="M11" s="2">
-        <v>272</v>
+        <v>203</v>
       </c>
       <c r="N11" s="2">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="O11" s="2">
-        <v>332</v>
+        <v>235</v>
       </c>
       <c r="P11" s="2">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="Q11" s="2">
-        <v>368</v>
+        <v>263</v>
       </c>
       <c r="R11" s="2">
-        <v>388</v>
+        <v>279</v>
+      </c>
+      <c r="S11" s="2">
+        <v>291</v>
+      </c>
+      <c r="T11" s="2">
+        <v>307</v>
+      </c>
+      <c r="U11" s="2">
+        <v>315</v>
+      </c>
+      <c r="V11" s="2">
+        <v>330</v>
+      </c>
+      <c r="W11" s="2">
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:110">
       <c r="A12" s="3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5">
-        <v>260</v>
+        <v>391</v>
       </c>
       <c r="D12" s="3">
-        <v>500</v>
-      </c>
-      <c r="E12" s="14">
-        <f>C12*D12</f>
-        <v>130000</v>
-      </c>
-      <c r="F12" s="11">
-        <f>G12/D12</f>
+        <v>139</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="1"/>
+        <v>54349</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G12" s="10">
-        <f>MAX(J12:DF12)</f>
-        <v>500</v>
-      </c>
-      <c r="H12" s="10">
-        <f>ROUNDUP((D12-G12)*C12/I12/25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="10">
-        <f>(MAX(L12:DF12)-B12)*C12/25/COUNTIF(L12:DF12,"&gt;0")</f>
-        <v>1809.6</v>
-      </c>
-      <c r="J12" s="7">
-        <f>B12</f>
-        <v>267</v>
-      </c>
-      <c r="K12" s="7">
-        <v>500</v>
+      <c r="G12" s="9">
+        <f t="shared" si="3"/>
+        <v>139</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" si="5"/>
+        <v>1485.8</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="K12" s="6">
+        <v>139</v>
       </c>
       <c r="L12" s="2">
-        <v>441</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:110">
       <c r="A13" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="C13" s="5">
-        <v>1221</v>
+        <v>860</v>
       </c>
       <c r="D13" s="3">
-        <v>378</v>
-      </c>
-      <c r="E13" s="14">
-        <f>C13*D13</f>
-        <v>461538</v>
-      </c>
-      <c r="F13" s="11">
-        <f>G13/D13</f>
+        <v>263</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="1"/>
+        <v>226180</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G13" s="10">
-        <f>MAX(J13:DF13)</f>
-        <v>378</v>
-      </c>
-      <c r="H13" s="10">
-        <f>ROUNDUP((D13-G13)*C13/I13/25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="10">
-        <f>(MAX(L13:DF13)-B13)*C13/25/COUNTIF(L13:DF13,"&gt;0")</f>
-        <v>1094.0160000000001</v>
-      </c>
-      <c r="J13" s="7">
-        <f>B13</f>
-        <v>220</v>
-      </c>
-      <c r="K13" s="7">
-        <v>378</v>
+      <c r="G13" s="9">
+        <f t="shared" si="3"/>
+        <v>263</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="5"/>
+        <v>2236</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="K13" s="2">
+        <v>263</v>
       </c>
       <c r="L13" s="2">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c r="M13" s="2">
-        <v>266</v>
-      </c>
-      <c r="N13" s="2">
-        <v>286</v>
-      </c>
-      <c r="O13" s="2">
-        <v>306</v>
-      </c>
-      <c r="P13" s="2">
-        <v>332</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:110">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C14" s="5">
-        <v>540</v>
+        <v>672</v>
       </c>
       <c r="D14" s="3">
-        <v>308</v>
-      </c>
-      <c r="E14" s="14">
-        <f>C14*D14</f>
-        <v>166320</v>
-      </c>
-      <c r="F14" s="11">
-        <f>G14/D14</f>
+        <v>271</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="1"/>
+        <v>182112</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G14" s="10">
-        <f>MAX(J14:DF14)</f>
-        <v>308</v>
-      </c>
-      <c r="H14" s="10">
-        <f>ROUNDUP((D14-G14)*C14/I14/25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="10">
-        <f>(MAX(L14:DF14)-B14)*C14/25/COUNTIF(L14:DF14,"&gt;0")</f>
-        <v>1235.52</v>
-      </c>
-      <c r="J14" s="2">
-        <f>B14</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>308</v>
+      <c r="G14" s="9">
+        <f t="shared" si="3"/>
+        <v>271</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" si="5"/>
+        <v>720.38400000000001</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="K14" s="6">
+        <v>271</v>
       </c>
       <c r="L14" s="2">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="M14" s="2">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="N14" s="2">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="O14" s="2">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="P14" s="2">
-        <v>286</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:110">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="C15" s="5">
-        <v>600</v>
+        <v>690</v>
       </c>
       <c r="D15" s="3">
-        <v>289</v>
-      </c>
-      <c r="E15" s="14">
-        <f>C15*D15</f>
-        <v>173400</v>
-      </c>
-      <c r="F15" s="11">
-        <f>G15/D15</f>
+        <v>409</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="1"/>
+        <v>282210</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G15" s="10">
-        <f>MAX(J15:DF15)</f>
-        <v>289</v>
-      </c>
-      <c r="H15" s="10">
-        <f>ROUNDUP((D15-G15)*C15/I15/25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="10">
-        <f>(MAX(L15:DF15)-B15)*C15/25/COUNTIF(L15:DF15,"&gt;0")</f>
-        <v>1928</v>
-      </c>
-      <c r="J15" s="2">
-        <f>B15</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>289</v>
+      <c r="G15" s="9">
+        <f t="shared" si="3"/>
+        <v>409</v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <f t="shared" si="5"/>
+        <v>622.97142857142865</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="6"/>
+        <v>230</v>
+      </c>
+      <c r="K15" s="6">
+        <v>409</v>
       </c>
       <c r="L15" s="2">
-        <v>93</v>
+        <v>246</v>
       </c>
       <c r="M15" s="2">
-        <v>177</v>
+        <v>272</v>
       </c>
       <c r="N15" s="2">
-        <v>241</v>
+        <v>304</v>
+      </c>
+      <c r="O15" s="2">
+        <v>332</v>
+      </c>
+      <c r="P15" s="2">
+        <v>354</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>368</v>
+      </c>
+      <c r="R15" s="2">
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:110">
       <c r="A16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3">
+        <v>267</v>
+      </c>
+      <c r="C16" s="5">
+        <v>260</v>
+      </c>
+      <c r="D16" s="3">
+        <v>500</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="1"/>
+        <v>130000</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="H16" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <f t="shared" si="5"/>
+        <v>1809.6</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="6"/>
+        <v>267</v>
+      </c>
+      <c r="K16" s="6">
+        <v>500</v>
+      </c>
+      <c r="L16" s="2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3">
+        <v>220</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1221</v>
+      </c>
+      <c r="D17" s="3">
+        <v>378</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="1"/>
+        <v>461538</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="3"/>
+        <v>378</v>
+      </c>
+      <c r="H17" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <f t="shared" si="5"/>
+        <v>1094.0160000000001</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="6"/>
+        <v>220</v>
+      </c>
+      <c r="K17" s="6">
+        <v>378</v>
+      </c>
+      <c r="L17" s="2">
+        <v>238</v>
+      </c>
+      <c r="M17" s="2">
+        <v>266</v>
+      </c>
+      <c r="N17" s="2">
+        <v>286</v>
+      </c>
+      <c r="O17" s="2">
+        <v>306</v>
+      </c>
+      <c r="P17" s="2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>540</v>
+      </c>
+      <c r="D18" s="3">
+        <v>308</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="1"/>
+        <v>166320</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="3"/>
+        <v>308</v>
+      </c>
+      <c r="H18" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="shared" si="5"/>
+        <v>1235.52</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>308</v>
+      </c>
+      <c r="L18" s="2">
+        <v>64</v>
+      </c>
+      <c r="M18" s="2">
+        <v>130</v>
+      </c>
+      <c r="N18" s="2">
+        <v>180</v>
+      </c>
+      <c r="O18" s="2">
+        <v>242</v>
+      </c>
+      <c r="P18" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>600</v>
+      </c>
+      <c r="D19" s="3">
+        <v>289</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="1"/>
+        <v>173400</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="9">
+        <f t="shared" si="3"/>
+        <v>289</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <f t="shared" si="5"/>
+        <v>1928</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>289</v>
+      </c>
+      <c r="L19" s="2">
+        <v>93</v>
+      </c>
+      <c r="M19" s="2">
+        <v>177</v>
+      </c>
+      <c r="N19" s="2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1023</v>
+      </c>
+      <c r="D20" s="3">
+        <v>312</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" si="1"/>
+        <v>319176</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="3"/>
+        <v>312</v>
+      </c>
+      <c r="H20" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <f t="shared" si="5"/>
+        <v>1235.7840000000001</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="K20" s="2">
+        <v>312</v>
+      </c>
+      <c r="L20" s="2">
+        <v>63</v>
+      </c>
+      <c r="M20" s="2">
+        <v>83</v>
+      </c>
+      <c r="N20" s="2">
+        <v>109</v>
+      </c>
+      <c r="O20" s="2">
+        <v>129</v>
+      </c>
+      <c r="P20" s="2">
+        <v>149</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>167</v>
+      </c>
+      <c r="R20" s="2">
+        <v>191</v>
+      </c>
+      <c r="S20" s="2">
+        <v>213</v>
+      </c>
+      <c r="T20" s="2">
+        <v>257</v>
+      </c>
+      <c r="U20" s="2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="3">
-        <v>10</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1023</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>715</v>
+      </c>
+      <c r="D21" s="3">
+        <v>211</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" si="1"/>
+        <v>150865</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="3"/>
+        <v>211</v>
+      </c>
+      <c r="H21" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <f t="shared" si="5"/>
+        <v>670.51111111111118</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>19</v>
+      </c>
+      <c r="M21" s="2">
+        <v>36</v>
+      </c>
+      <c r="N21" s="2">
+        <v>55</v>
+      </c>
+      <c r="O21" s="2">
+        <v>83</v>
+      </c>
+      <c r="P21" s="2">
+        <v>105</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>130</v>
+      </c>
+      <c r="R21" s="2">
+        <v>156</v>
+      </c>
+      <c r="S21" s="2">
+        <v>178</v>
+      </c>
+      <c r="T21" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>750</v>
+      </c>
+      <c r="D22" s="3">
+        <v>339</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" si="1"/>
+        <v>254250</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="9">
+        <f t="shared" si="3"/>
+        <v>339</v>
+      </c>
+      <c r="H22" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <f t="shared" si="5"/>
+        <v>1100</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>339</v>
+      </c>
+      <c r="L22" s="2">
+        <v>41</v>
+      </c>
+      <c r="M22" s="2">
+        <v>72</v>
+      </c>
+      <c r="N22" s="2">
+        <v>101</v>
+      </c>
+      <c r="O22" s="2">
+        <v>121</v>
+      </c>
+      <c r="P22" s="2">
+        <v>163</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>205</v>
+      </c>
+      <c r="R22" s="2">
+        <v>239</v>
+      </c>
+      <c r="S22" s="2">
+        <v>287</v>
+      </c>
+      <c r="T22" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3">
+        <v>228</v>
+      </c>
+      <c r="C23" s="5">
+        <v>606</v>
+      </c>
+      <c r="D23" s="3">
+        <v>458</v>
+      </c>
+      <c r="E23" s="13">
+        <f t="shared" si="1"/>
+        <v>277548</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="9">
+        <f t="shared" si="3"/>
+        <v>458</v>
+      </c>
+      <c r="H23" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="shared" si="5"/>
+        <v>2278.56</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="6"/>
+        <v>228</v>
+      </c>
+      <c r="K23" s="2">
+        <v>458</v>
+      </c>
+      <c r="L23" s="2">
+        <v>364</v>
+      </c>
+      <c r="M23" s="2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3">
+        <v>20</v>
+      </c>
+      <c r="C24" s="5">
+        <v>575</v>
+      </c>
+      <c r="D24" s="3">
+        <v>356</v>
+      </c>
+      <c r="E24" s="13">
+        <f t="shared" si="1"/>
+        <v>204700</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
+        <f t="shared" si="3"/>
+        <v>356</v>
+      </c>
+      <c r="H24" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
+        <f t="shared" si="5"/>
+        <v>1288</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="L24" s="2">
+        <v>93</v>
+      </c>
+      <c r="M24" s="2">
+        <v>145</v>
+      </c>
+      <c r="N24" s="2">
+        <v>189</v>
+      </c>
+      <c r="O24" s="2">
+        <v>241</v>
+      </c>
+      <c r="P24" s="2">
+        <v>303</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1353</v>
+      </c>
+      <c r="D25" s="3">
+        <v>90</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" si="1"/>
+        <v>121770</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="9">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="H25" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="5"/>
+        <v>1623.6000000000001</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>23</v>
+      </c>
+      <c r="M25" s="2">
+        <v>61</v>
+      </c>
+      <c r="N25" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="3">
+        <v>169</v>
+      </c>
+      <c r="C26" s="5">
+        <v>750</v>
+      </c>
+      <c r="D26" s="3">
+        <v>259</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="1"/>
+        <v>194250</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G26" s="9">
+        <f t="shared" si="3"/>
+        <v>259</v>
+      </c>
+      <c r="H26" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <f t="shared" si="5"/>
+        <v>915</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="6"/>
+        <v>169</v>
+      </c>
+      <c r="K26" s="2">
+        <v>259</v>
+      </c>
+      <c r="L26" s="2">
+        <v>190</v>
+      </c>
+      <c r="M26" s="2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="3">
+        <v>82</v>
+      </c>
+      <c r="C27" s="5">
+        <v>618</v>
+      </c>
+      <c r="D27" s="3">
+        <v>301</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="1"/>
+        <v>186018</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="9">
+        <f t="shared" si="3"/>
+        <v>301</v>
+      </c>
+      <c r="H27" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
+        <f t="shared" si="5"/>
+        <v>902.28000000000009</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="L27" s="2">
+        <v>129</v>
+      </c>
+      <c r="M27" s="2">
+        <v>162</v>
+      </c>
+      <c r="N27" s="2">
+        <v>185</v>
+      </c>
+      <c r="O27" s="2">
+        <v>217</v>
+      </c>
+      <c r="P27" s="2">
+        <v>264</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="3">
+        <v>23</v>
+      </c>
+      <c r="C28" s="5">
+        <v>432</v>
+      </c>
+      <c r="D28" s="3">
+        <v>230</v>
+      </c>
+      <c r="E28" s="13">
+        <f t="shared" si="1"/>
+        <v>99360</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G28" s="9">
+        <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
+      <c r="H28" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
+        <f t="shared" si="5"/>
+        <v>705.024</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="K28" s="2">
+        <v>230</v>
+      </c>
+      <c r="L28" s="2">
+        <v>51</v>
+      </c>
+      <c r="M28" s="2">
+        <v>94</v>
+      </c>
+      <c r="N28" s="2">
+        <v>135</v>
+      </c>
+      <c r="O28" s="2">
+        <v>184</v>
+      </c>
+      <c r="P28" s="2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>624</v>
+      </c>
+      <c r="D29" s="3">
+        <v>268</v>
+      </c>
+      <c r="E29" s="13">
+        <f t="shared" si="1"/>
+        <v>167232</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="9">
+        <f t="shared" si="3"/>
+        <v>268</v>
+      </c>
+      <c r="H29" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <f t="shared" si="5"/>
+        <v>1148.1600000000001</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>268</v>
+      </c>
+      <c r="L29" s="2">
+        <v>56</v>
+      </c>
+      <c r="M29" s="2">
+        <v>104</v>
+      </c>
+      <c r="N29" s="2">
+        <v>141</v>
+      </c>
+      <c r="O29" s="2">
+        <v>179</v>
+      </c>
+      <c r="P29" s="2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>575</v>
+      </c>
+      <c r="D30" s="3">
+        <v>198</v>
+      </c>
+      <c r="E30" s="13">
+        <f t="shared" si="1"/>
+        <v>113850</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="9">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
+      <c r="H30" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="9">
+        <f t="shared" si="5"/>
+        <v>1119.3333333333333</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>198</v>
+      </c>
+      <c r="L30" s="2">
+        <v>42</v>
+      </c>
+      <c r="M30" s="2">
+        <v>92</v>
+      </c>
+      <c r="N30" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>525</v>
+      </c>
+      <c r="D31" s="3">
+        <v>165</v>
+      </c>
+      <c r="E31" s="13">
+        <f t="shared" si="1"/>
+        <v>86625</v>
+      </c>
+      <c r="F31" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G31" s="9">
+        <f t="shared" si="3"/>
+        <v>165</v>
+      </c>
+      <c r="H31" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" si="5"/>
+        <v>1022</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>165</v>
+      </c>
+      <c r="L31" s="2">
+        <v>35</v>
+      </c>
+      <c r="M31" s="2">
+        <v>92</v>
+      </c>
+      <c r="N31" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="3">
+        <v>125</v>
+      </c>
+      <c r="C32" s="5">
+        <v>800</v>
+      </c>
+      <c r="D32" s="3">
+        <v>412</v>
+      </c>
+      <c r="E32" s="13">
+        <f t="shared" si="1"/>
+        <v>329600</v>
+      </c>
+      <c r="F32" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="9">
+        <f t="shared" si="3"/>
+        <v>412</v>
+      </c>
+      <c r="H32" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="9">
+        <f t="shared" si="5"/>
+        <v>1088</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="K32" s="2">
+        <v>412</v>
+      </c>
+      <c r="L32" s="2">
+        <v>195</v>
+      </c>
+      <c r="M32" s="2">
+        <v>232</v>
+      </c>
+      <c r="N32" s="2">
+        <v>270</v>
+      </c>
+      <c r="O32" s="2">
+        <v>292</v>
+      </c>
+      <c r="P32" s="2">
         <v>312</v>
       </c>
-      <c r="E16" s="14">
-        <f>C16*D16</f>
-        <v>319176</v>
-      </c>
-      <c r="F16" s="11">
-        <f>G16/D16</f>
+      <c r="Q32" s="2">
+        <v>337</v>
+      </c>
+      <c r="R32" s="2">
+        <v>360</v>
+      </c>
+      <c r="S32" s="2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>675</v>
+      </c>
+      <c r="D33" s="3">
+        <v>299</v>
+      </c>
+      <c r="E33" s="13">
+        <f t="shared" si="1"/>
+        <v>201825</v>
+      </c>
+      <c r="F33" s="11">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G16" s="10">
-        <f>MAX(J16:DF16)</f>
-        <v>312</v>
-      </c>
-      <c r="H16" s="10">
-        <f>ROUNDUP((D16-G16)*C16/I16/25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="10">
-        <f>(MAX(L16:DF16)-B16)*C16/25/COUNTIF(L16:DF16,"&gt;0")</f>
-        <v>1235.7840000000001</v>
-      </c>
-      <c r="J16" s="2">
-        <f>B16</f>
-        <v>10</v>
-      </c>
-      <c r="K16" s="2">
-        <v>312</v>
-      </c>
-      <c r="L16" s="2">
-        <v>63</v>
-      </c>
-      <c r="M16" s="2">
-        <v>83</v>
-      </c>
-      <c r="N16" s="2">
-        <v>109</v>
-      </c>
-      <c r="O16" s="2">
-        <v>129</v>
-      </c>
-      <c r="P16" s="2">
-        <v>149</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>167</v>
-      </c>
-      <c r="R16" s="2">
-        <v>191</v>
-      </c>
-      <c r="S16" s="2">
-        <v>213</v>
-      </c>
-      <c r="T16" s="2">
-        <v>257</v>
-      </c>
-      <c r="U16" s="2">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5">
-        <v>715</v>
-      </c>
-      <c r="D17" s="3">
-        <v>211</v>
-      </c>
-      <c r="E17" s="14">
-        <f>C17*D17</f>
-        <v>150865</v>
-      </c>
-      <c r="F17" s="11">
-        <f>G17/D17</f>
+      <c r="G33" s="9">
+        <f t="shared" si="3"/>
+        <v>299</v>
+      </c>
+      <c r="H33" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
+        <f t="shared" si="5"/>
+        <v>1579.5</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>299</v>
+      </c>
+      <c r="L33" s="2">
+        <v>40</v>
+      </c>
+      <c r="M33" s="2">
+        <v>67</v>
+      </c>
+      <c r="N33" s="2">
+        <v>122</v>
+      </c>
+      <c r="O33" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>690</v>
+      </c>
+      <c r="D34" s="3">
+        <v>241</v>
+      </c>
+      <c r="E34" s="13">
+        <f t="shared" si="1"/>
+        <v>166290</v>
+      </c>
+      <c r="F34" s="11">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G17" s="10">
-        <f>MAX(J17:DF17)</f>
-        <v>211</v>
-      </c>
-      <c r="H17" s="10">
-        <f>ROUNDUP((D17-G17)*C17/I17/25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="10">
-        <f>(MAX(L17:DF17)-B17)*C17/25/COUNTIF(L17:DF17,"&gt;0")</f>
-        <v>670.51111111111118</v>
-      </c>
-      <c r="J17" s="2">
-        <f>B17</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>19</v>
-      </c>
-      <c r="M17" s="2">
-        <v>36</v>
-      </c>
-      <c r="N17" s="2">
-        <v>55</v>
-      </c>
-      <c r="O17" s="2">
-        <v>83</v>
-      </c>
-      <c r="P17" s="2">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>130</v>
-      </c>
-      <c r="R17" s="2">
-        <v>156</v>
-      </c>
-      <c r="S17" s="2">
-        <v>178</v>
-      </c>
-      <c r="T17" s="2">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0</v>
-      </c>
-      <c r="C18" s="5">
-        <v>750</v>
-      </c>
-      <c r="D18" s="3">
-        <v>339</v>
-      </c>
-      <c r="E18" s="14">
-        <f>C18*D18</f>
-        <v>254250</v>
-      </c>
-      <c r="F18" s="11">
-        <f>G18/D18</f>
+      <c r="G34" s="9">
+        <f t="shared" si="3"/>
+        <v>241</v>
+      </c>
+      <c r="H34" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="9">
+        <f t="shared" si="5"/>
+        <v>2428.8000000000002</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>241</v>
+      </c>
+      <c r="L34" s="2">
+        <v>74</v>
+      </c>
+      <c r="M34" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="3">
+        <v>-30</v>
+      </c>
+      <c r="C35" s="5">
+        <v>744</v>
+      </c>
+      <c r="D35" s="3">
+        <v>157</v>
+      </c>
+      <c r="E35" s="13">
+        <f t="shared" si="1"/>
+        <v>116808</v>
+      </c>
+      <c r="F35" s="11">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G18" s="10">
-        <f>MAX(J18:DF18)</f>
-        <v>339</v>
-      </c>
-      <c r="H18" s="10">
-        <f>ROUNDUP((D18-G18)*C18/I18/25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="10">
-        <f>(MAX(L18:DF18)-B18)*C18/25/COUNTIF(L18:DF18,"&gt;0")</f>
-        <v>1100</v>
-      </c>
-      <c r="J18" s="2">
-        <f>B18</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>339</v>
-      </c>
-      <c r="L18" s="2">
-        <v>41</v>
-      </c>
-      <c r="M18" s="2">
-        <v>72</v>
-      </c>
-      <c r="N18" s="2">
-        <v>101</v>
-      </c>
-      <c r="O18" s="2">
-        <v>121</v>
-      </c>
-      <c r="P18" s="2">
-        <v>163</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>205</v>
-      </c>
-      <c r="R18" s="2">
-        <v>239</v>
-      </c>
-      <c r="S18" s="2">
-        <v>287</v>
-      </c>
-      <c r="T18" s="2">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="3">
-        <v>228</v>
-      </c>
-      <c r="C19" s="5">
-        <v>606</v>
-      </c>
-      <c r="D19" s="3">
-        <v>458</v>
-      </c>
-      <c r="E19" s="14">
-        <f>C19*D19</f>
-        <v>277548</v>
-      </c>
-      <c r="F19" s="11">
-        <f>G19/D19</f>
-        <v>1</v>
-      </c>
-      <c r="G19" s="10">
-        <f>MAX(J19:DF19)</f>
-        <v>458</v>
-      </c>
-      <c r="H19" s="10">
-        <f>ROUNDUP((D19-G19)*C19/I19/25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="10">
-        <f>(MAX(L19:DF19)-B19)*C19/25/COUNTIF(L19:DF19,"&gt;0")</f>
-        <v>2278.56</v>
-      </c>
-      <c r="J19" s="2">
-        <f>B19</f>
-        <v>228</v>
-      </c>
-      <c r="K19" s="2">
-        <v>458</v>
-      </c>
-      <c r="L19" s="2">
-        <v>364</v>
-      </c>
-      <c r="M19" s="2">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="3" t="s">
+      <c r="G35" s="9">
+        <f t="shared" si="3"/>
+        <v>157</v>
+      </c>
+      <c r="H35" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="9">
+        <f t="shared" si="5"/>
+        <v>1468.1599999999999</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="6"/>
+        <v>-30</v>
+      </c>
+      <c r="K35" s="2">
+        <v>157</v>
+      </c>
+      <c r="L35" s="2">
         <v>26</v>
       </c>
-      <c r="B20" s="3">
-        <v>20</v>
-      </c>
-      <c r="C20" s="5">
-        <v>575</v>
-      </c>
-      <c r="D20" s="3">
-        <v>356</v>
-      </c>
-      <c r="E20" s="14">
-        <f>C20*D20</f>
-        <v>204700</v>
-      </c>
-      <c r="F20" s="11">
-        <f>G20/D20</f>
-        <v>1</v>
-      </c>
-      <c r="G20" s="10">
-        <f>MAX(J20:DF20)</f>
-        <v>356</v>
-      </c>
-      <c r="H20" s="10">
-        <f>ROUNDUP((D20-G20)*C20/I20/25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="10">
-        <f>(MAX(L20:DF20)-B20)*C20/25/COUNTIF(L20:DF20,"&gt;0")</f>
-        <v>1288</v>
-      </c>
-      <c r="J20" s="2">
-        <f>B20</f>
-        <v>20</v>
-      </c>
-      <c r="L20" s="2">
-        <v>93</v>
-      </c>
-      <c r="M20" s="2">
-        <v>145</v>
-      </c>
-      <c r="N20" s="2">
-        <v>189</v>
-      </c>
-      <c r="O20" s="2">
-        <v>241</v>
-      </c>
-      <c r="P20" s="2">
-        <v>303</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1353</v>
-      </c>
-      <c r="D21" s="3">
-        <v>90</v>
-      </c>
-      <c r="E21" s="14">
-        <f>C21*D21</f>
-        <v>121770</v>
-      </c>
-      <c r="F21" s="11">
-        <f>G21/D21</f>
-        <v>1</v>
-      </c>
-      <c r="G21" s="10">
-        <f>MAX(J21:DF21)</f>
-        <v>90</v>
-      </c>
-      <c r="H21" s="10">
-        <f>ROUNDUP((D21-G21)*C21/I21/25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="10">
-        <f>(MAX(L21:DF21)-B21)*C21/25/COUNTIF(L21:DF21,"&gt;0")</f>
-        <v>1623.6000000000001</v>
-      </c>
-      <c r="J21" s="2">
-        <f>B21</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="2">
-        <v>23</v>
-      </c>
-      <c r="M21" s="2">
-        <v>61</v>
-      </c>
-      <c r="N21" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="E22" s="14">
-        <f>C22*D22</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="11" t="e">
-        <f>G22/D22</f>
+      <c r="M35" s="2">
+        <v>66</v>
+      </c>
+      <c r="N35" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="C36" s="5"/>
+      <c r="E36" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="11" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="10">
-        <f>MAX(J22:DF22)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="10" t="e">
-        <f>ROUNDUP((D22-G22)*C22/I22/25,0)</f>
+      <c r="G36" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="14" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="10" t="e">
-        <f>(MAX(L22:DF22)-B22)*C22/25/COUNTIF(L22:DF22,"&gt;0")</f>
+      <c r="I36" s="9" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J22" s="2">
-        <f>B22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="C23" s="5"/>
-      <c r="E23" s="14">
-        <f>C23*D23</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="11" t="e">
-        <f>G23/D23</f>
+      <c r="J36" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="E37" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="11" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="10">
-        <f>MAX(J23:DF23)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="10" t="e">
-        <f>ROUNDUP((D23-G23)*C23/I23/25,0)</f>
+      <c r="G37" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="14" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="10" t="e">
-        <f>(MAX(L23:DF23)-B23)*C23/25/COUNTIF(L23:DF23,"&gt;0")</f>
+      <c r="I37" s="9" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J23" s="2">
-        <f>B23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="C24" s="5"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="10">
-        <f>MAX(J24:DF24)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="10" t="e">
-        <f>ROUNDUP((D24-G24)*C24/I24/25,0)</f>
+      <c r="J37" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="E38" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="11" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J24" s="2">
-        <f>B24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="C25" s="5"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="10">
-        <f>MAX(J25:DF25)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="10" t="e">
-        <f>ROUNDUP((D25-G25)*C25/I25/25,0)</f>
+      <c r="G38" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="E39" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="11" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J25" s="2">
-        <f>B25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="C26" s="5"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="10">
-        <f>MAX(J26:DF26)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="10" t="e">
-        <f>ROUNDUP((D26-G26)*C26/I26/25,0)</f>
+      <c r="G39" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="E40" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="11" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J26" s="2">
-        <f>B26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="C27" s="5"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="10">
-        <f>MAX(J27:DF27)</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="10" t="e">
-        <f>ROUNDUP((D27-G27)*C27/I27/25,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="2">
-        <f>B27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="C28" s="5"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="10">
-        <f>MAX(J28:DF28)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="10" t="e">
-        <f>ROUNDUP((D28-G28)*C28/I28/25,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="2">
-        <f>B28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="C29" s="5"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="10">
-        <f>MAX(J29:DF29)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="10" t="e">
-        <f>ROUNDUP((D29-G29)*C29/I29/25,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="2">
-        <f>B29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="C30" s="6"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="10">
-        <f>MAX(J30:DF30)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="10" t="e">
-        <f>ROUNDUP((D30-G30)*C30/I30/25,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J30" s="2">
-        <f>B30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="C31" s="6"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="10">
-        <f>MAX(J31:DF31)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="10" t="e">
-        <f>ROUNDUP((D31-G31)*C31/I31/25,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J31" s="2">
-        <f>B31</f>
+      <c r="G40" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="G41" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="G42" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="G43" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="G44" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="G45" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="G46" s="9">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:DF31">
+  <sortState ref="A3:DF45">
     <sortCondition ref="F1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F27">
-    <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{88C2517A-4CB2-334A-9CB1-B77A175A1F60}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="dataBar" priority="12">
       <dataBar>
@@ -2288,21 +3278,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I23">
-    <cfRule type="dataBar" priority="20">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CA456DB9-17E6-7746-A48D-C2B6D432CC34}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24:I1048576 I1:I2">
+  <conditionalFormatting sqref="I38:I1048576 I1:I2">
     <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="min"/>
@@ -2316,22 +3292,39 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F40">
+    <cfRule type="dataBar" priority="31">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{88C2517A-4CB2-334A-9CB1-B77A175A1F60}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I37">
+    <cfRule type="dataBar" priority="42">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CA456DB9-17E6-7746-A48D-C2B6D432CC34}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{88C2517A-4CB2-334A-9CB1-B77A175A1F60}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F1:F27</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{624D7F75-4626-074A-86C4-498A22F1F704}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
@@ -2372,6 +3365,30 @@
           <xm:sqref>E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5FF41A0A-C9D7-754C-A85E-F3E5B3BBB7DE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I38:I1048576 I1:I2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{88C2517A-4CB2-334A-9CB1-B77A175A1F60}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F1:F40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CA456DB9-17E6-7746-A48D-C2B6D432CC34}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -2382,20 +3399,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I3:I23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5FF41A0A-C9D7-754C-A85E-F3E5B3BBB7DE}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFFB628"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I24:I1048576 I1:I2</xm:sqref>
+          <xm:sqref>I3:I37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
